--- a/data/fractionation/230301 Batch 139 Water Yr Summary.xlsx
+++ b/data/fractionation/230301 Batch 139 Water Yr Summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Banfield\WaterYear\SIP\data\fractionation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A6DD71-2D59-4C09-B0DF-4BE5247A8149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F8D2DA-5FCF-412B-A52F-E3D65A188FE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="622" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38290" yWindow="-9270" windowWidth="38620" windowHeight="21100" tabRatio="622" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table of Contents" sheetId="22" r:id="rId1"/>
@@ -34,7 +34,7 @@
     <sheet name="Tube P" sheetId="19" r:id="rId19"/>
     <sheet name="time" sheetId="1" r:id="rId20"/>
   </sheets>
-  <calcPr calcId="191029" iterateCount="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="214">
   <si>
     <t>calculated density p(20)</t>
   </si>
@@ -666,9 +666,6 @@
   </si>
   <si>
     <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
   </si>
   <si>
     <t>C</t>
@@ -1373,6 +1370,15 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="167" fontId="14" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1380,15 +1386,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1785,133 +1782,18 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Summary!$F$5:$F$23</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>1.7639660650000017</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.760687785</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.7554152179999996</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.7466731380000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.7401165779999985</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.7348440109999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.7304729710000011</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.7250091710000017</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.7195453710000024</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.715365563999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.7088090040000008</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.7022524440000009</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.6967886439999997</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.6904233170000005</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.6849595170000011</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.6794957170000018</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.6720376300000002</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.6545534700000015</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.5802457899999993</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:f>Summary!#REF!</c:f>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$G$5:$G$23</c:f>
+              <c:f>Summary!#REF!</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>-1.785857146707243E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-6.8934702869877815E-4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.4009899842676319E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.31798564969779819</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.73011011617552146</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.4130782845891845</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.5515475229015103</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>13.584024154015362</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>18.739577449274012</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>17.39345175365364</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10.341034271698277</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.6435516872993543</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.6811725149499128</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.7890059643202646</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.41072221573534318</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.24443094114978939</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.15234579486883137</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.19406020725896647</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.2039948940225271</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -1956,7 +1838,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Summary!$I$5:$I$23</c:f>
+              <c:f>Summary!$F$5:$F$23</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="19"/>
@@ -2023,7 +1905,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$J$5:$J$23</c:f>
+              <c:f>Summary!$G$5:$G$23</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="19"/>
@@ -2127,7 +2009,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Summary!$L$5:$L$23</c:f>
+              <c:f>Summary!$I$5:$I$23</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="19"/>
@@ -2194,7 +2076,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$M$5:$M$23</c:f>
+              <c:f>Summary!$J$5:$J$23</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="19"/>
@@ -2298,7 +2180,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Summary!$O$5:$O$23</c:f>
+              <c:f>Summary!$L$5:$L$23</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="19"/>
@@ -2364,7 +2246,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$P$5:$P$23</c:f>
+              <c:f>Summary!$M$5:$M$23</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="19"/>
@@ -2467,7 +2349,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Summary!$R$5:$R$23</c:f>
+              <c:f>Summary!$O$5:$O$23</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="19"/>
@@ -2533,7 +2415,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$S$5:$S$23</c:f>
+              <c:f>Summary!$P$5:$P$23</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="19"/>
@@ -2642,7 +2524,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Summary!$U$5:$U$23</c:f>
+              <c:f>Summary!$R$5:$R$23</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="19"/>
@@ -2708,7 +2590,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$V$5:$V$23</c:f>
+              <c:f>Summary!$S$5:$S$23</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="19"/>
@@ -2817,7 +2699,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Summary!$X$5:$X$23</c:f>
+              <c:f>Summary!$U$5:$U$23</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="19"/>
@@ -2883,7 +2765,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$Y$5:$Y$23</c:f>
+              <c:f>Summary!$V$5:$V$23</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="19"/>
@@ -3656,75 +3538,12 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$F$4:$F$25</c:f>
+              <c:f>Summary!#REF!</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.7639660650000017</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.7639660650000017</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.760687785</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.7554152179999996</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.7466731380000002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.7401165779999985</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.7348440109999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.7304729710000011</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.7250091710000017</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.7195453710000024</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.715365563999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.7088090040000008</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.7022524440000009</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.6967886439999997</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.6904233170000005</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.6849595170000011</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.6794957170000018</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.6720376300000002</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.6545534700000015</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.5802457899999993</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.4097752299999993</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.1770173500000016</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3843,7 +3662,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$I$4:$I$25</c:f>
+              <c:f>Summary!$F$4:$F$25</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="22"/>
@@ -4030,7 +3849,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$L$4:$L$25</c:f>
+              <c:f>Summary!$I$4:$I$25</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="22"/>
@@ -4217,7 +4036,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$O$4:$O$25</c:f>
+              <c:f>Summary!$L$4:$L$25</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="22"/>
@@ -4404,7 +4223,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$R$4:$R$25</c:f>
+              <c:f>Summary!$O$4:$O$25</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="22"/>
@@ -4597,7 +4416,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$U$4:$U$25</c:f>
+              <c:f>Summary!$R$4:$R$25</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="22"/>
@@ -4790,7 +4609,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$X$4:$X$25</c:f>
+              <c:f>Summary!$U$4:$U$25</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="22"/>
@@ -4983,7 +4802,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$AA$4:$AA$25</c:f>
+              <c:f>Summary!$X$4:$X$25</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="22"/>
@@ -5176,7 +4995,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$AD$4:$AD$25</c:f>
+              <c:f>Summary!$AA$4:$AA$25</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="22"/>
@@ -5369,7 +5188,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$AG$4:$AG$25</c:f>
+              <c:f>Summary!$AD$4:$AD$25</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="22"/>
@@ -5562,7 +5381,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$AJ$4:$AJ$25</c:f>
+              <c:f>Summary!$AG$4:$AG$25</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="22"/>
@@ -6636,7 +6455,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Summary!$AA$4:$AA$25</c:f>
+              <c:f>Summary!$X$4:$X$25</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="22"/>
@@ -6711,7 +6530,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$AB$4:$AB$25</c:f>
+              <c:f>Summary!$Y$4:$Y$25</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="22"/>
@@ -6829,7 +6648,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Summary!$AD$4:$AD$25</c:f>
+              <c:f>Summary!$AA$4:$AA$25</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="22"/>
@@ -6904,7 +6723,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$AE$4:$AE$25</c:f>
+              <c:f>Summary!$AB$4:$AB$25</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="22"/>
@@ -7022,7 +6841,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Summary!$AG$5:$AG$23</c:f>
+              <c:f>Summary!$AD$5:$AD$23</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="19"/>
@@ -7088,7 +6907,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$AH$5:$AH$23</c:f>
+              <c:f>Summary!$AE$5:$AE$23</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="19"/>
@@ -7197,7 +7016,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Summary!$AJ$5:$AJ$23</c:f>
+              <c:f>Summary!$AG$5:$AG$23</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="19"/>
@@ -7263,7 +7082,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$AK$5:$AK$23</c:f>
+              <c:f>Summary!$AH$5:$AH$23</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="19"/>
@@ -9656,7 +9475,7 @@
       <xdr:rowOff>55032</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>194734</xdr:colOff>
       <xdr:row>53</xdr:row>
       <xdr:rowOff>116415</xdr:rowOff>
@@ -9688,13 +9507,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>551391</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>61079</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>277436</xdr:colOff>
       <xdr:row>53</xdr:row>
       <xdr:rowOff>93134</xdr:rowOff>
@@ -9724,13 +9543,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>541866</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>260349</xdr:colOff>
       <xdr:row>53</xdr:row>
       <xdr:rowOff>103716</xdr:rowOff>
@@ -10164,65 +9983,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E138FBF1-D534-4F7E-950C-764D2E6B8C19}">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="12.45"/>
   <cols>
-    <col min="1" max="1" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7265625" customWidth="1"/>
-    <col min="4" max="4" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.54296875" customWidth="1"/>
-    <col min="7" max="7" width="18.7265625" customWidth="1"/>
+    <col min="1" max="1" width="11.23046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.69140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.69140625" customWidth="1"/>
+    <col min="4" max="4" width="17.23046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.69140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.53515625" customWidth="1"/>
+    <col min="7" max="7" width="18.69140625" customWidth="1"/>
     <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="27" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B4" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="D4" s="27" t="s">
         <v>193</v>
       </c>
-      <c r="C4" s="27" t="s">
-        <v>195</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>194</v>
-      </c>
       <c r="E4" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="H4" s="27" t="s">
         <v>200</v>
       </c>
-      <c r="F4" s="27" t="s">
-        <v>206</v>
-      </c>
-      <c r="G4" s="27" t="s">
-        <v>207</v>
-      </c>
-      <c r="H4" s="27" t="s">
-        <v>201</v>
-      </c>
       <c r="I4" s="27" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J4" s="27" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -10235,7 +10054,7 @@
         <v>Tube A</v>
       </c>
       <c r="C5" s="63" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D5" s="64">
         <v>44986</v>
@@ -10244,7 +10063,7 @@
         <v>112</v>
       </c>
       <c r="F5" s="63" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G5" s="63">
         <f>TubeLoading!J29</f>
@@ -10260,32 +10079,32 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="63">
-        <f>TubeLoading!F30</f>
-        <v>2390</v>
+        <f>TubeLoading!F31</f>
+        <v>2446</v>
       </c>
       <c r="B6" s="63" t="str">
-        <f>TubeLoading!A30</f>
-        <v>Tube B</v>
+        <f>TubeLoading!A31</f>
+        <v>Tube C</v>
       </c>
       <c r="C6" s="63" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D6" s="64">
         <v>44986</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="63">
         <v>112</v>
       </c>
       <c r="F6" s="63" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G6" s="63">
-        <f>TubeLoading!J30</f>
-        <v>4000.0000000000005</v>
+        <f>TubeLoading!J31</f>
+        <v>4000</v>
       </c>
       <c r="H6" s="50">
         <f>Summary!G26</f>
-        <v>73.593679424018404</v>
+        <v>41.816098179342355</v>
       </c>
       <c r="I6" s="50">
         <v>37</v>
@@ -10293,32 +10112,32 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="63">
-        <f>TubeLoading!F31</f>
-        <v>2446</v>
+        <f>TubeLoading!F32</f>
+        <v>2458</v>
       </c>
       <c r="B7" s="63" t="str">
-        <f>TubeLoading!A31</f>
-        <v>Tube C</v>
+        <f>TubeLoading!A32</f>
+        <v>Tube D</v>
       </c>
       <c r="C7" s="63" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D7" s="64">
         <v>44986</v>
       </c>
-      <c r="E7" s="63">
+      <c r="E7">
         <v>112</v>
       </c>
       <c r="F7" s="63" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G7" s="63">
-        <f>TubeLoading!J31</f>
+        <f>TubeLoading!J32</f>
         <v>4000</v>
       </c>
       <c r="H7" s="50">
         <f>Summary!J26</f>
-        <v>41.816098179342355</v>
+        <v>34.707307323797586</v>
       </c>
       <c r="I7" s="50">
         <v>37</v>
@@ -10326,32 +10145,32 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="63">
-        <f>TubeLoading!F32</f>
-        <v>2458</v>
+        <f>TubeLoading!F33</f>
+        <v>1796</v>
       </c>
       <c r="B8" s="63" t="str">
-        <f>TubeLoading!A32</f>
-        <v>Tube D</v>
+        <f>TubeLoading!A33</f>
+        <v>Tube E</v>
       </c>
       <c r="C8" s="63" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D8" s="64">
         <v>44986</v>
       </c>
       <c r="E8">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F8" s="63" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G8" s="63">
-        <f>TubeLoading!J32</f>
-        <v>4000</v>
+        <f>TubeLoading!J33</f>
+        <v>3999.9999999999995</v>
       </c>
       <c r="H8" s="50">
         <f>Summary!M26</f>
-        <v>34.707307323797586</v>
+        <v>37.385409201893339</v>
       </c>
       <c r="I8" s="50">
         <v>37</v>
@@ -10359,15 +10178,15 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="63">
-        <f>TubeLoading!F33</f>
-        <v>1796</v>
+        <f>TubeLoading!F34</f>
+        <v>2453</v>
       </c>
       <c r="B9" s="63" t="str">
-        <f>TubeLoading!A33</f>
-        <v>Tube E</v>
+        <f>TubeLoading!A34</f>
+        <v>Tube F</v>
       </c>
       <c r="C9" s="63" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D9" s="64">
         <v>44986</v>
@@ -10376,15 +10195,15 @@
         <v>116</v>
       </c>
       <c r="F9" s="63" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G9" s="63">
-        <f>TubeLoading!J33</f>
-        <v>3999.9999999999995</v>
+        <f>TubeLoading!J34</f>
+        <v>4000</v>
       </c>
       <c r="H9" s="50">
         <f>Summary!P26</f>
-        <v>37.385409201893339</v>
+        <v>36.917147874094979</v>
       </c>
       <c r="I9" s="50">
         <v>37</v>
@@ -10392,15 +10211,15 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="63">
-        <f>TubeLoading!F34</f>
-        <v>2453</v>
+        <f>TubeLoading!F35</f>
+        <v>4006</v>
       </c>
       <c r="B10" s="63" t="str">
-        <f>TubeLoading!A34</f>
-        <v>Tube F</v>
+        <f>TubeLoading!A35</f>
+        <v>Tube G</v>
       </c>
       <c r="C10" s="63" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D10" s="64">
         <v>44986</v>
@@ -10409,15 +10228,15 @@
         <v>116</v>
       </c>
       <c r="F10" s="63" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G10" s="63">
-        <f>TubeLoading!J34</f>
+        <f>TubeLoading!J35</f>
         <v>4000</v>
       </c>
       <c r="H10" s="50">
         <f>Summary!S26</f>
-        <v>36.917147874094979</v>
+        <v>33.254518276339276</v>
       </c>
       <c r="I10" s="50">
         <v>37</v>
@@ -10425,15 +10244,15 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="63">
-        <f>TubeLoading!F35</f>
-        <v>4006</v>
+        <f>TubeLoading!F36</f>
+        <v>2450</v>
       </c>
       <c r="B11" s="63" t="str">
-        <f>TubeLoading!A35</f>
-        <v>Tube G</v>
+        <f>TubeLoading!A36</f>
+        <v>Tube H</v>
       </c>
       <c r="C11" s="63" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D11" s="64">
         <v>44986</v>
@@ -10442,15 +10261,15 @@
         <v>116</v>
       </c>
       <c r="F11" s="63" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G11" s="63">
-        <f>TubeLoading!J35</f>
+        <f>TubeLoading!J36</f>
         <v>4000</v>
       </c>
       <c r="H11" s="50">
         <f>Summary!V26</f>
-        <v>33.254518276339276</v>
+        <v>49.389282824600336</v>
       </c>
       <c r="I11" s="50">
         <v>37</v>
@@ -10458,48 +10277,51 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="63">
-        <f>TubeLoading!F36</f>
-        <v>2450</v>
+        <f>TubeLoading!F37</f>
+        <v>1429</v>
       </c>
       <c r="B12" s="63" t="str">
-        <f>TubeLoading!A36</f>
-        <v>Tube H</v>
+        <f>TubeLoading!A37</f>
+        <v>Tube I</v>
       </c>
       <c r="C12" s="63" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D12" s="64">
         <v>44986</v>
       </c>
       <c r="E12">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="F12" s="63" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G12" s="63">
-        <f>TubeLoading!J36</f>
+        <f>TubeLoading!J37</f>
         <v>4000</v>
       </c>
       <c r="H12" s="50">
         <f>Summary!Y26</f>
-        <v>49.389282824600336</v>
+        <v>35.562752600350471</v>
       </c>
       <c r="I12" s="50">
-        <v>37</v>
+        <v>34</v>
+      </c>
+      <c r="J12" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="63">
-        <f>TubeLoading!F37</f>
-        <v>1429</v>
+        <f>TubeLoading!F38</f>
+        <v>2388</v>
       </c>
       <c r="B13" s="63" t="str">
-        <f>TubeLoading!A37</f>
-        <v>Tube I</v>
+        <f>TubeLoading!A38</f>
+        <v>Tube J</v>
       </c>
       <c r="C13" s="63" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D13" s="64">
         <v>44986</v>
@@ -10508,34 +10330,31 @@
         <v>135</v>
       </c>
       <c r="F13" s="63" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G13" s="63">
-        <f>TubeLoading!J37</f>
-        <v>4000</v>
+        <f>TubeLoading!J38</f>
+        <v>3999.9999999999995</v>
       </c>
       <c r="H13" s="50">
         <f>Summary!AB26</f>
-        <v>35.562752600350471</v>
+        <v>35.291218910496688</v>
       </c>
       <c r="I13" s="50">
         <v>34</v>
       </c>
-      <c r="J13" t="s">
-        <v>212</v>
-      </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="63">
-        <f>TubeLoading!F38</f>
-        <v>2388</v>
+        <f>TubeLoading!F39</f>
+        <v>1437</v>
       </c>
       <c r="B14" s="63" t="str">
-        <f>TubeLoading!A38</f>
-        <v>Tube J</v>
+        <f>TubeLoading!A39</f>
+        <v>Tube K</v>
       </c>
       <c r="C14" s="63" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D14" s="64">
         <v>44986</v>
@@ -10544,15 +10363,15 @@
         <v>135</v>
       </c>
       <c r="F14" s="63" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G14" s="63">
-        <f>TubeLoading!J38</f>
-        <v>3999.9999999999995</v>
+        <f>TubeLoading!J39</f>
+        <v>4000</v>
       </c>
       <c r="H14" s="50">
         <f>Summary!AE26</f>
-        <v>35.291218910496688</v>
+        <v>51.80878929951578</v>
       </c>
       <c r="I14" s="50">
         <v>34</v>
@@ -10560,15 +10379,15 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="63">
-        <f>TubeLoading!F39</f>
-        <v>1437</v>
+        <f>TubeLoading!F40</f>
+        <v>2395</v>
       </c>
       <c r="B15" s="63" t="str">
-        <f>TubeLoading!A39</f>
-        <v>Tube K</v>
+        <f>TubeLoading!A40</f>
+        <v>Tube L</v>
       </c>
       <c r="C15" s="63" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D15" s="64">
         <v>44986</v>
@@ -10577,56 +10396,23 @@
         <v>135</v>
       </c>
       <c r="F15" s="63" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G15" s="63">
-        <f>TubeLoading!J39</f>
+        <f>TubeLoading!J40</f>
         <v>4000</v>
       </c>
       <c r="H15" s="50">
         <f>Summary!AH26</f>
-        <v>51.80878929951578</v>
+        <v>30.81260990708639</v>
       </c>
       <c r="I15" s="50">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="63">
-        <f>TubeLoading!F40</f>
-        <v>2395</v>
-      </c>
-      <c r="B16" s="63" t="str">
-        <f>TubeLoading!A40</f>
-        <v>Tube L</v>
-      </c>
-      <c r="C16" s="63" t="s">
-        <v>202</v>
-      </c>
-      <c r="D16" s="64">
-        <v>44986</v>
-      </c>
-      <c r="E16">
-        <v>135</v>
-      </c>
-      <c r="F16" s="63" t="s">
-        <v>211</v>
-      </c>
-      <c r="G16" s="63">
-        <f>TubeLoading!J40</f>
-        <v>4000</v>
-      </c>
-      <c r="H16" s="50">
-        <f>Summary!AK26</f>
-        <v>30.81260990708639</v>
-      </c>
-      <c r="I16" s="50">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
-        <v>208</v>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -10643,9 +10429,9 @@
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.36328125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="11.3828125" defaultRowHeight="12.45"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="26">
+    <row r="1" spans="1:13" ht="24.9">
       <c r="A1" s="32" t="s">
         <v>55</v>
       </c>
@@ -11260,9 +11046,9 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.36328125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="11.3828125" defaultRowHeight="12.45"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="26">
+    <row r="1" spans="1:13" ht="24.9">
       <c r="A1" s="32" t="s">
         <v>55</v>
       </c>
@@ -11685,7 +11471,7 @@
         <v>1.6892759190000017</v>
       </c>
       <c r="G16" s="55" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -11710,7 +11496,7 @@
         <v>1.684904879000003</v>
       </c>
       <c r="G17" s="55" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -11735,7 +11521,7 @@
         <v>1.6772555590000007</v>
       </c>
       <c r="G18" s="55" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -11760,7 +11546,7 @@
         <v>1.6741685120000014</v>
       </c>
       <c r="G19" s="55" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -11785,7 +11571,7 @@
         <v>1.6554003590000015</v>
       </c>
       <c r="G20" s="55" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -11810,7 +11596,7 @@
         <v>1.5692635520000007</v>
       </c>
       <c r="G21" s="55" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -11835,7 +11621,7 @@
         <v>1.3747522720000038</v>
       </c>
       <c r="G22" s="55" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -11860,7 +11646,7 @@
         <v>1.1682206320000006</v>
       </c>
       <c r="G23" s="55" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -11877,9 +11663,9 @@
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.36328125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="11.3828125" defaultRowHeight="12.45"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="26">
+    <row r="1" spans="1:13" ht="24.9">
       <c r="A1" s="32" t="s">
         <v>55</v>
       </c>
@@ -12493,9 +12279,9 @@
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.36328125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="11.3828125" defaultRowHeight="12.45"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="26">
+    <row r="1" spans="1:13" ht="24.9">
       <c r="A1" s="32" t="s">
         <v>55</v>
       </c>
@@ -13109,9 +12895,9 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.36328125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="11.3828125" defaultRowHeight="12.45"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="26">
+    <row r="1" spans="1:13" ht="24.9">
       <c r="A1" s="32" t="s">
         <v>55</v>
       </c>
@@ -13725,9 +13511,9 @@
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.36328125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="11.3828125" defaultRowHeight="12.45"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="26">
+    <row r="1" spans="1:13" ht="24.9">
       <c r="A1" s="32" t="s">
         <v>55</v>
       </c>
@@ -14150,7 +13936,7 @@
         <v>1.694084063</v>
       </c>
       <c r="G16" s="55" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -14175,7 +13961,7 @@
         <v>1.6875275030000001</v>
       </c>
       <c r="G17" s="55" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -14200,7 +13986,7 @@
         <v>1.682063702999999</v>
       </c>
       <c r="G18" s="55" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -14225,7 +14011,7 @@
         <v>1.675507142999999</v>
       </c>
       <c r="G19" s="55" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -14250,7 +14036,7 @@
         <v>1.6547447029999987</v>
       </c>
       <c r="G20" s="55" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -14275,7 +14061,7 @@
         <v>1.5695094229999995</v>
       </c>
       <c r="G21" s="55" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -14300,7 +14086,7 @@
         <v>1.3749981430000009</v>
       </c>
       <c r="G22" s="55" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -14325,7 +14111,7 @@
         <v>1.1673737429999989</v>
       </c>
       <c r="G23" s="55" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -14341,9 +14127,9 @@
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.36328125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="11.3828125" defaultRowHeight="12.45"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="26">
+    <row r="1" spans="1:13" ht="24.9">
       <c r="A1" s="32" t="s">
         <v>55</v>
       </c>
@@ -14869,9 +14655,9 @@
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.36328125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="11.3828125" defaultRowHeight="12.45"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="26">
+    <row r="1" spans="1:13" ht="24.9">
       <c r="A1" s="32" t="s">
         <v>55</v>
       </c>
@@ -16616,9 +16402,9 @@
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.36328125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="11.3828125" defaultRowHeight="12.45"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="26">
+    <row r="1" spans="1:13" ht="24.9">
       <c r="A1" s="32" t="s">
         <v>55</v>
       </c>
@@ -17145,9 +16931,9 @@
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.36328125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="11.3828125" defaultRowHeight="12.45"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="26">
+    <row r="1" spans="1:13" ht="24.9">
       <c r="A1" s="32" t="s">
         <v>55</v>
       </c>
@@ -17510,7 +17296,7 @@
         <v>-13.63998868</v>
       </c>
       <c r="G16" s="55" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -17531,7 +17317,7 @@
         <v>-13.63998868</v>
       </c>
       <c r="G17" s="55" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -17552,7 +17338,7 @@
         <v>-13.63998868</v>
       </c>
       <c r="G18" s="55" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -17573,7 +17359,7 @@
         <v>-13.63998868</v>
       </c>
       <c r="G19" s="55" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -17594,7 +17380,7 @@
         <v>-13.63998868</v>
       </c>
       <c r="G20" s="55" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -17615,7 +17401,7 @@
         <v>-13.63998868</v>
       </c>
       <c r="G21" s="55" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -17636,7 +17422,7 @@
         <v>-13.63998868</v>
       </c>
       <c r="G22" s="55" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -17657,7 +17443,7 @@
         <v>-13.63998868</v>
       </c>
       <c r="G23" s="55" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -18885,27 +18671,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA4E3B1-5772-4D1F-AF5A-033072A123CA}">
-  <dimension ref="A1:AK86"/>
+  <dimension ref="A1:AH86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="AD35" sqref="AD35"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="P67" sqref="P67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="12.45"/>
   <cols>
-    <col min="1" max="1" width="9.54296875" style="53" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.36328125" style="53" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" style="53" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="10.90625" style="53"/>
-    <col min="8" max="8" width="10.90625" style="53" customWidth="1"/>
-    <col min="9" max="9" width="10.90625" style="53"/>
-    <col min="10" max="11" width="11" style="53" customWidth="1"/>
-    <col min="12" max="16384" width="10.90625" style="53"/>
+    <col min="1" max="1" width="9.53515625" style="53" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.3828125" style="53" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.69140625" style="53" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.921875" style="53"/>
+    <col min="5" max="5" width="10.921875" style="53" customWidth="1"/>
+    <col min="6" max="6" width="10.921875" style="53"/>
+    <col min="7" max="8" width="11" style="53" customWidth="1"/>
+    <col min="9" max="16384" width="10.921875" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="13" thickTop="1">
+    <row r="1" spans="1:34" ht="12.9" thickTop="1">
       <c r="A1" s="59" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B1" s="98">
         <f>TubeLoading!F29</f>
@@ -18920,317 +18706,291 @@
         <v>2448-conc</v>
       </c>
       <c r="E1" s="98">
-        <f>TubeLoading!F30</f>
-        <v>2390</v>
-      </c>
-      <c r="F1" s="100" t="str">
-        <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$30,"density")</f>
-        <v>2390-density</v>
-      </c>
-      <c r="G1" s="100" t="str">
-        <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$30,"conc")</f>
-        <v>2390-conc</v>
-      </c>
-      <c r="H1" s="98">
         <f>TubeLoading!F31</f>
         <v>2446</v>
       </c>
-      <c r="I1" s="100" t="str">
+      <c r="F1" s="100" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$31,"density")</f>
         <v>2446-density</v>
       </c>
-      <c r="J1" s="100" t="str">
+      <c r="G1" s="100" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$31,"conc")</f>
         <v>2446-conc</v>
       </c>
-      <c r="K1" s="98">
+      <c r="H1" s="98">
         <f>TubeLoading!F32</f>
         <v>2458</v>
       </c>
-      <c r="L1" s="100" t="str">
+      <c r="I1" s="100" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$32,"density")</f>
         <v>2458-density</v>
       </c>
-      <c r="M1" s="100" t="str">
+      <c r="J1" s="100" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$32,"conc")</f>
         <v>2458-conc</v>
       </c>
-      <c r="N1" s="99">
+      <c r="K1" s="99">
         <f>TubeLoading!F33</f>
         <v>1796</v>
       </c>
-      <c r="O1" s="100" t="str">
+      <c r="L1" s="100" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$33,"density")</f>
         <v>1796-density</v>
       </c>
-      <c r="P1" s="100" t="str">
+      <c r="M1" s="100" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$33,"conc")</f>
         <v>1796-conc</v>
       </c>
-      <c r="Q1" s="99">
+      <c r="N1" s="99">
         <f>TubeLoading!F34</f>
         <v>2453</v>
       </c>
-      <c r="R1" s="100" t="str">
+      <c r="O1" s="100" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$34,"density")</f>
         <v>2453-density</v>
       </c>
-      <c r="S1" s="100" t="str">
+      <c r="P1" s="100" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$34,"conc")</f>
         <v>2453-conc</v>
       </c>
-      <c r="T1" s="99">
+      <c r="Q1" s="99">
         <f>TubeLoading!F35</f>
         <v>4006</v>
       </c>
-      <c r="U1" s="100" t="str">
+      <c r="R1" s="100" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$35,"density")</f>
         <v>4006-density</v>
       </c>
-      <c r="V1" s="100" t="str">
+      <c r="S1" s="100" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$35,"conc")</f>
         <v>4006-conc</v>
       </c>
-      <c r="W1" s="99">
+      <c r="T1" s="99">
         <f>TubeLoading!F36</f>
         <v>2450</v>
       </c>
-      <c r="X1" s="100" t="str">
+      <c r="U1" s="100" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$36,"density")</f>
         <v>2450-density</v>
       </c>
-      <c r="Y1" s="100" t="str">
+      <c r="V1" s="100" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$36,"conc")</f>
         <v>2450-conc</v>
       </c>
-      <c r="Z1" s="99">
+      <c r="W1" s="99">
         <f>TubeLoading!F37</f>
         <v>1429</v>
       </c>
-      <c r="AA1" s="100" t="str">
+      <c r="X1" s="100" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$37,"density")</f>
         <v>1429-density</v>
       </c>
-      <c r="AB1" s="100" t="str">
+      <c r="Y1" s="100" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$37,"conc")</f>
         <v>1429-conc</v>
       </c>
-      <c r="AC1" s="99">
+      <c r="Z1" s="99">
         <f>TubeLoading!F38</f>
         <v>2388</v>
       </c>
-      <c r="AD1" s="100" t="str">
+      <c r="AA1" s="100" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$38,"density")</f>
         <v>2388-density</v>
       </c>
-      <c r="AE1" s="100" t="str">
+      <c r="AB1" s="100" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$38,"conc")</f>
         <v>2388-conc</v>
       </c>
-      <c r="AF1" s="99">
+      <c r="AC1" s="99">
         <f>TubeLoading!F39</f>
         <v>1437</v>
       </c>
-      <c r="AG1" s="100" t="str">
+      <c r="AD1" s="100" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$39,"density")</f>
         <v>1437-density</v>
       </c>
-      <c r="AH1" s="100" t="str">
+      <c r="AE1" s="100" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$39,"conc")</f>
         <v>1437-conc</v>
       </c>
-      <c r="AI1" s="99">
+      <c r="AF1" s="99">
         <f>TubeLoading!F40</f>
         <v>2395</v>
       </c>
-      <c r="AJ1" s="100" t="str">
+      <c r="AG1" s="100" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$40,"density")</f>
         <v>2395-density</v>
       </c>
-      <c r="AK1" s="100" t="str">
+      <c r="AH1" s="100" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$40,"conc")</f>
         <v>2395-conc</v>
       </c>
     </row>
-    <row r="2" spans="1:37">
+    <row r="2" spans="1:34">
       <c r="A2" s="59" t="s">
-        <v>187</v>
-      </c>
-      <c r="B2" s="113" t="s">
+        <v>186</v>
+      </c>
+      <c r="B2" s="116" t="s">
         <v>169</v>
       </c>
-      <c r="C2" s="114"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="113" t="s">
+      <c r="C2" s="117"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="116" t="s">
         <v>170</v>
       </c>
-      <c r="F2" s="114"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="113" t="s">
+      <c r="F2" s="117"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="116" t="s">
         <v>171</v>
       </c>
-      <c r="I2" s="114"/>
-      <c r="J2" s="115"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="118"/>
       <c r="K2" s="113" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L2" s="114"/>
       <c r="M2" s="115"/>
-      <c r="N2" s="116" t="s">
+      <c r="N2" s="113" t="s">
         <v>174</v>
       </c>
-      <c r="O2" s="117"/>
-      <c r="P2" s="118"/>
-      <c r="Q2" s="116" t="s">
+      <c r="O2" s="114"/>
+      <c r="P2" s="115"/>
+      <c r="Q2" s="113" t="s">
         <v>175</v>
       </c>
-      <c r="R2" s="117"/>
-      <c r="S2" s="118"/>
-      <c r="T2" s="116" t="s">
+      <c r="R2" s="114"/>
+      <c r="S2" s="115"/>
+      <c r="T2" s="113" t="s">
         <v>176</v>
       </c>
-      <c r="U2" s="117"/>
-      <c r="V2" s="118"/>
-      <c r="W2" s="116" t="s">
-        <v>177</v>
-      </c>
-      <c r="X2" s="117"/>
-      <c r="Y2" s="118"/>
-      <c r="Z2" s="116" t="s">
+      <c r="U2" s="114"/>
+      <c r="V2" s="115"/>
+      <c r="W2" s="113" t="s">
+        <v>202</v>
+      </c>
+      <c r="X2" s="114"/>
+      <c r="Y2" s="115"/>
+      <c r="Z2" s="113" t="s">
         <v>203</v>
       </c>
-      <c r="AA2" s="117"/>
-      <c r="AB2" s="118"/>
-      <c r="AC2" s="116" t="s">
+      <c r="AA2" s="114"/>
+      <c r="AB2" s="115"/>
+      <c r="AC2" s="113" t="s">
         <v>204</v>
       </c>
-      <c r="AD2" s="117"/>
-      <c r="AE2" s="118"/>
-      <c r="AF2" s="116" t="s">
-        <v>205</v>
-      </c>
-      <c r="AG2" s="117"/>
-      <c r="AH2" s="118"/>
-      <c r="AI2" s="116" t="s">
+      <c r="AD2" s="114"/>
+      <c r="AE2" s="115"/>
+      <c r="AF2" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="AJ2" s="117"/>
-      <c r="AK2" s="118"/>
-    </row>
-    <row r="3" spans="1:37">
+      <c r="AG2" s="114"/>
+      <c r="AH2" s="115"/>
+    </row>
+    <row r="3" spans="1:34">
       <c r="A3" s="59" t="s">
         <v>168</v>
       </c>
       <c r="B3" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="C3" s="61" t="s">
         <v>188</v>
       </c>
-      <c r="C3" s="61" t="s">
-        <v>189</v>
-      </c>
       <c r="D3" s="62" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E3" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="F3" s="61" t="s">
         <v>188</v>
       </c>
-      <c r="F3" s="61" t="s">
-        <v>189</v>
-      </c>
       <c r="G3" s="62" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H3" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="I3" s="61" t="s">
         <v>188</v>
       </c>
-      <c r="I3" s="61" t="s">
-        <v>189</v>
-      </c>
       <c r="J3" s="62" t="s">
-        <v>173</v>
-      </c>
-      <c r="K3" s="60" t="s">
+        <v>172</v>
+      </c>
+      <c r="K3" s="81" t="s">
+        <v>187</v>
+      </c>
+      <c r="L3" s="82" t="s">
         <v>188</v>
       </c>
-      <c r="L3" s="61" t="s">
-        <v>189</v>
-      </c>
-      <c r="M3" s="62" t="s">
-        <v>173</v>
+      <c r="M3" s="83" t="s">
+        <v>172</v>
       </c>
       <c r="N3" s="81" t="s">
+        <v>187</v>
+      </c>
+      <c r="O3" s="82" t="s">
         <v>188</v>
       </c>
-      <c r="O3" s="82" t="s">
-        <v>189</v>
-      </c>
       <c r="P3" s="83" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q3" s="81" t="s">
+        <v>187</v>
+      </c>
+      <c r="R3" s="82" t="s">
         <v>188</v>
       </c>
-      <c r="R3" s="82" t="s">
-        <v>189</v>
-      </c>
       <c r="S3" s="83" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="T3" s="81" t="s">
+        <v>187</v>
+      </c>
+      <c r="U3" s="82" t="s">
         <v>188</v>
       </c>
-      <c r="U3" s="82" t="s">
-        <v>189</v>
-      </c>
       <c r="V3" s="83" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="W3" s="81" t="s">
+        <v>187</v>
+      </c>
+      <c r="X3" s="82" t="s">
         <v>188</v>
       </c>
-      <c r="X3" s="82" t="s">
-        <v>189</v>
-      </c>
       <c r="Y3" s="83" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Z3" s="81" t="s">
+        <v>187</v>
+      </c>
+      <c r="AA3" s="82" t="s">
         <v>188</v>
       </c>
-      <c r="AA3" s="82" t="s">
-        <v>189</v>
-      </c>
       <c r="AB3" s="83" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AC3" s="81" t="s">
+        <v>187</v>
+      </c>
+      <c r="AD3" s="82" t="s">
         <v>188</v>
       </c>
-      <c r="AD3" s="82" t="s">
-        <v>189</v>
-      </c>
       <c r="AE3" s="83" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AF3" s="81" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG3" s="82" t="s">
         <v>188</v>
       </c>
-      <c r="AG3" s="82" t="s">
-        <v>189</v>
-      </c>
       <c r="AH3" s="83" t="s">
-        <v>173</v>
-      </c>
-      <c r="AI3" s="81" t="s">
-        <v>188</v>
-      </c>
-      <c r="AJ3" s="82" t="s">
-        <v>189</v>
-      </c>
-      <c r="AK3" s="83" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="4" spans="1:37">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34">
       <c r="A4" s="53">
         <v>1</v>
       </c>
@@ -19246,128 +19006,117 @@
         <v>-2.1615370618207268E-2</v>
       </c>
       <c r="E4" s="66" t="str">
-        <f>'Tube B'!G2</f>
-        <v>G3</v>
-      </c>
-      <c r="F4" s="67">
-        <f>'Tube B'!F2</f>
-        <v>1.7639660650000017</v>
-      </c>
-      <c r="G4" s="68">
-        <v>-2.3986431705230311E-2</v>
-      </c>
-      <c r="H4" s="66" t="str">
         <f>'Tube C'!G2</f>
         <v>D6</v>
       </c>
-      <c r="I4" s="67">
+      <c r="F4" s="67">
         <f>'Tube C'!F2</f>
         <v>1.7618351829999988</v>
       </c>
-      <c r="J4" s="68">
+      <c r="G4" s="68">
         <v>-2.1269997303857896E-2</v>
       </c>
-      <c r="K4" s="66" t="str">
+      <c r="H4" s="66" t="str">
         <f>'Tube D'!G2</f>
         <v>C9</v>
       </c>
-      <c r="L4" s="67">
+      <c r="I4" s="67">
         <f>'Tube D'!F2</f>
         <v>1.7660696280000021</v>
       </c>
-      <c r="M4" s="68">
+      <c r="J4" s="68">
         <v>-1.2942527787207189E-2</v>
       </c>
-      <c r="N4" s="66" t="str">
+      <c r="K4" s="66" t="str">
         <f>'Tube E'!G2</f>
         <v>A1</v>
       </c>
-      <c r="O4" s="67">
+      <c r="L4" s="67">
         <f>'Tube E'!F2</f>
         <v>1.765605205</v>
       </c>
-      <c r="P4" s="68">
+      <c r="M4" s="68">
         <v>-2.1102850682750477E-2</v>
       </c>
-      <c r="Q4" s="66" t="str">
+      <c r="N4" s="66" t="str">
         <f>'Tube F'!G2</f>
         <v>G3</v>
       </c>
-      <c r="R4" s="67">
+      <c r="O4" s="67">
         <f>'Tube F'!F2</f>
         <v>1.7665613699999998</v>
       </c>
-      <c r="S4" s="68">
+      <c r="P4" s="68">
         <v>-2.5756617681148883E-2</v>
       </c>
-      <c r="T4" s="66" t="str">
+      <c r="Q4" s="66" t="str">
         <f>'Tube G'!G2</f>
         <v>D6</v>
       </c>
-      <c r="U4" s="67">
+      <c r="R4" s="67">
         <f>'Tube G'!F2</f>
         <v>1.7607697420000008</v>
       </c>
-      <c r="V4" s="68">
+      <c r="S4" s="68">
         <v>-1.8304111153604963E-2</v>
       </c>
-      <c r="W4" s="66" t="str">
+      <c r="T4" s="66" t="str">
         <f>'Tube H'!G2</f>
         <v>C9</v>
       </c>
-      <c r="X4" s="67">
+      <c r="U4" s="67">
         <f>'Tube H'!F2</f>
         <v>1.7641026600000007</v>
       </c>
-      <c r="Y4" s="68">
+      <c r="V4" s="68">
         <v>-2.2765560460369112E-2</v>
       </c>
-      <c r="Z4" s="66" t="str">
+      <c r="W4" s="66" t="str">
         <f>'Tube I'!G2</f>
         <v>A1</v>
       </c>
-      <c r="AA4" s="67">
+      <c r="X4" s="67">
         <f>'Tube I'!F2</f>
         <v>1.7738009050000034</v>
       </c>
-      <c r="AB4" s="68">
+      <c r="Y4" s="68">
         <v>-1.8690065199955835E-2</v>
       </c>
-      <c r="AC4" s="66" t="str">
+      <c r="Z4" s="66" t="str">
         <f>'Tube J'!G2</f>
         <v>G3</v>
       </c>
-      <c r="AD4" s="67">
+      <c r="AA4" s="67">
         <f>'Tube J'!F2</f>
         <v>1.7687195710000019</v>
       </c>
-      <c r="AE4" s="68">
+      <c r="AB4" s="68">
         <v>-2.7452736665071573E-2</v>
       </c>
-      <c r="AF4" s="66" t="str">
+      <c r="AC4" s="66" t="str">
         <f>'Tube K'!G2</f>
         <v>D6</v>
       </c>
-      <c r="AG4" s="67">
+      <c r="AD4" s="67">
         <f>'Tube K'!F2</f>
         <v>1.7603599570000021</v>
       </c>
-      <c r="AH4" s="68">
+      <c r="AE4" s="68">
         <v>-1.5574945339482482E-2</v>
       </c>
-      <c r="AI4" s="66" t="str">
+      <c r="AF4" s="66" t="str">
         <f>'Tube L'!G2</f>
         <v>C9</v>
       </c>
-      <c r="AJ4" s="67">
+      <c r="AG4" s="67">
         <f>'Tube L'!F2</f>
         <v>1.7694845029999993</v>
       </c>
-      <c r="AK4" s="68">
+      <c r="AH4" s="68">
         <v>-1.2885749349623133E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:37">
+    <row r="5" spans="1:34">
       <c r="A5" s="53">
         <v>2</v>
       </c>
@@ -19383,128 +19132,117 @@
         <v>-1.8079559538178702E-2</v>
       </c>
       <c r="E5" s="69" t="str">
-        <f>'Tube B'!G3</f>
-        <v>H3</v>
-      </c>
-      <c r="F5" s="70">
-        <f>'Tube B'!F3</f>
-        <v>1.7639660650000017</v>
-      </c>
-      <c r="G5" s="71">
-        <v>-1.785857146707243E-2</v>
-      </c>
-      <c r="H5" s="69" t="str">
         <f>'Tube C'!G3</f>
         <v>C6</v>
       </c>
-      <c r="I5" s="70">
+      <c r="F5" s="70">
         <f>'Tube C'!F3</f>
         <v>1.7651134630000023</v>
       </c>
-      <c r="J5" s="71">
+      <c r="G5" s="71">
         <v>-1.0333364174338432E-2</v>
       </c>
-      <c r="K5" s="69" t="str">
+      <c r="H5" s="69" t="str">
         <f>'Tube D'!G3</f>
         <v>D9</v>
       </c>
-      <c r="L5" s="70">
+      <c r="I5" s="70">
         <f>'Tube D'!F3</f>
         <v>1.7671623880000009</v>
       </c>
-      <c r="M5" s="71">
+      <c r="J5" s="71">
         <v>0.24119402836771639</v>
       </c>
-      <c r="N5" s="69" t="str">
+      <c r="K5" s="69" t="str">
         <f>'Tube E'!G3</f>
         <v>B1</v>
       </c>
-      <c r="O5" s="70">
+      <c r="L5" s="70">
         <f>'Tube E'!F3</f>
         <v>1.7645124449999994</v>
       </c>
-      <c r="P5" s="71">
+      <c r="M5" s="71">
         <v>-4.678157648791763E-3</v>
       </c>
-      <c r="Q5" s="69" t="str">
+      <c r="N5" s="69" t="str">
         <f>'Tube F'!G3</f>
         <v>H3</v>
       </c>
-      <c r="R5" s="70">
+      <c r="O5" s="70">
         <f>'Tube F'!F3</f>
         <v>1.765468610000001</v>
       </c>
-      <c r="S5" s="71">
+      <c r="P5" s="71">
         <v>-1.0111096139332421E-2</v>
       </c>
-      <c r="T5" s="69" t="str">
+      <c r="Q5" s="69" t="str">
         <f>'Tube G'!G3</f>
         <v>C6</v>
       </c>
-      <c r="U5" s="70">
+      <c r="R5" s="70">
         <f>'Tube G'!F3</f>
         <v>1.762244968000001</v>
       </c>
-      <c r="V5" s="71">
+      <c r="S5" s="71">
         <v>-1.5009856803994406E-2</v>
       </c>
-      <c r="W5" s="69" t="str">
+      <c r="T5" s="69" t="str">
         <f>'Tube H'!G3</f>
         <v>D9</v>
       </c>
-      <c r="X5" s="70">
+      <c r="U5" s="70">
         <f>'Tube H'!F3</f>
         <v>1.7695664600000036</v>
       </c>
-      <c r="Y5" s="71">
+      <c r="V5" s="71">
         <v>3.9512295173095395E-3</v>
       </c>
-      <c r="Z5" s="69" t="str">
+      <c r="W5" s="69" t="str">
         <f>'Tube I'!G3</f>
         <v>B1</v>
       </c>
-      <c r="AA5" s="70">
+      <c r="X5" s="70">
         <f>'Tube I'!F3</f>
         <v>1.7705226250000035</v>
       </c>
-      <c r="AB5" s="71">
+      <c r="Y5" s="71">
         <v>-1.2051889180915655E-2</v>
       </c>
-      <c r="AC5" s="69" t="str">
+      <c r="Z5" s="69" t="str">
         <f>'Tube J'!G3</f>
         <v>H3</v>
       </c>
-      <c r="AD5" s="67">
+      <c r="AA5" s="67">
         <f>'Tube J'!F3</f>
         <v>1.7665340510000007</v>
       </c>
-      <c r="AE5" s="71">
+      <c r="AB5" s="71">
         <v>-2.5430061802798314E-2</v>
       </c>
-      <c r="AF5" s="69" t="str">
+      <c r="AC5" s="69" t="str">
         <f>'Tube K'!G3</f>
         <v>C6</v>
       </c>
-      <c r="AG5" s="70">
+      <c r="AD5" s="70">
         <f>'Tube K'!F3</f>
         <v>1.7647309970000009</v>
       </c>
-      <c r="AH5" s="71">
+      <c r="AE5" s="71">
         <v>-1.2622040613136052E-2</v>
       </c>
-      <c r="AI5" s="69" t="str">
+      <c r="AF5" s="69" t="str">
         <f>'Tube L'!G3</f>
         <v>D9</v>
       </c>
-      <c r="AJ5" s="70">
+      <c r="AG5" s="70">
         <f>'Tube L'!F3</f>
         <v>1.7683917429999987</v>
       </c>
-      <c r="AK5" s="71">
+      <c r="AH5" s="71">
         <v>-1.6931753037053941E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:37">
+    <row r="6" spans="1:34">
       <c r="A6" s="53">
         <v>3</v>
       </c>
@@ -19520,128 +19258,117 @@
         <v>-1.3273108200323985E-2</v>
       </c>
       <c r="E6" s="69" t="str">
-        <f>'Tube B'!G4</f>
-        <v>H4</v>
-      </c>
-      <c r="F6" s="70">
-        <f>'Tube B'!F4</f>
-        <v>1.760687785</v>
-      </c>
-      <c r="G6" s="71">
-        <v>-6.8934702869877815E-4</v>
-      </c>
-      <c r="H6" s="69" t="str">
         <f>'Tube C'!G4</f>
         <v>B6</v>
       </c>
-      <c r="I6" s="70">
+      <c r="F6" s="70">
         <f>'Tube C'!F4</f>
         <v>1.7618351829999988</v>
       </c>
-      <c r="J6" s="71">
+      <c r="G6" s="71">
         <v>0.11456274239112407</v>
       </c>
-      <c r="K6" s="69" t="str">
+      <c r="H6" s="69" t="str">
         <f>'Tube D'!G4</f>
         <v>E9</v>
       </c>
-      <c r="L6" s="70">
+      <c r="I6" s="70">
         <f>'Tube D'!F4</f>
         <v>1.7629825809999993</v>
       </c>
-      <c r="M6" s="71">
+      <c r="J6" s="71">
         <v>4.7115308080245407E-3</v>
       </c>
-      <c r="N6" s="69" t="str">
+      <c r="K6" s="69" t="str">
         <f>'Tube E'!G4</f>
         <v>C1</v>
       </c>
-      <c r="O6" s="70">
+      <c r="L6" s="70">
         <f>'Tube E'!F4</f>
         <v>1.7614253980000001</v>
       </c>
-      <c r="P6" s="71">
+      <c r="M6" s="71">
         <v>9.1062391632365531E-3</v>
       </c>
-      <c r="Q6" s="69" t="str">
+      <c r="N6" s="69" t="str">
         <f>'Tube F'!G4</f>
         <v>H4</v>
       </c>
-      <c r="R6" s="70">
+      <c r="O6" s="70">
         <f>'Tube F'!F4</f>
         <v>1.7623815629999999</v>
       </c>
-      <c r="S6" s="71">
+      <c r="P6" s="71">
         <v>3.5114271254800516E-2</v>
       </c>
-      <c r="T6" s="69" t="str">
+      <c r="Q6" s="69" t="str">
         <f>'Tube G'!G4</f>
         <v>B6</v>
       </c>
-      <c r="U6" s="70">
+      <c r="R6" s="70">
         <f>'Tube G'!F4</f>
         <v>1.7600594480000016</v>
       </c>
-      <c r="V6" s="71">
+      <c r="S6" s="71">
         <v>2.5816699555854226E-2</v>
       </c>
-      <c r="W6" s="69" t="str">
+      <c r="T6" s="69" t="str">
         <f>'Tube H'!G4</f>
         <v>E9</v>
       </c>
-      <c r="X6" s="70">
+      <c r="U6" s="70">
         <f>'Tube H'!F4</f>
         <v>1.7619171400000013</v>
       </c>
-      <c r="Y6" s="71">
+      <c r="V6" s="71">
         <v>2.0251247714623864E-2</v>
       </c>
-      <c r="Z6" s="69" t="str">
+      <c r="W6" s="69" t="str">
         <f>'Tube I'!G4</f>
         <v>C1</v>
       </c>
-      <c r="AA6" s="70">
+      <c r="X6" s="70">
         <f>'Tube I'!F4</f>
         <v>1.7650588250000006</v>
       </c>
-      <c r="AB6" s="71">
+      <c r="Y6" s="71">
         <v>-1.3324536885763204E-2</v>
       </c>
-      <c r="AC6" s="69" t="str">
+      <c r="Z6" s="69" t="str">
         <f>'Tube J'!G4</f>
         <v>H4</v>
       </c>
-      <c r="AD6" s="67">
+      <c r="AA6" s="67">
         <f>'Tube J'!F4</f>
         <v>1.7632557710000007</v>
       </c>
-      <c r="AE6" s="71">
+      <c r="AB6" s="71">
         <v>-3.1023650689879102E-2</v>
       </c>
-      <c r="AF6" s="69" t="str">
+      <c r="AC6" s="69" t="str">
         <f>'Tube K'!G4</f>
         <v>B6</v>
       </c>
-      <c r="AG6" s="70">
+      <c r="AD6" s="70">
         <f>'Tube K'!F4</f>
         <v>1.7614527170000027</v>
       </c>
-      <c r="AH6" s="71">
+      <c r="AE6" s="71">
         <v>-1.6866888542619134E-3</v>
       </c>
-      <c r="AI6" s="69" t="str">
+      <c r="AF6" s="69" t="str">
         <f>'Tube L'!G4</f>
         <v>E9</v>
       </c>
-      <c r="AJ6" s="70">
+      <c r="AG6" s="70">
         <f>'Tube L'!F4</f>
         <v>1.7629279429999993</v>
       </c>
-      <c r="AK6" s="71">
+      <c r="AH6" s="71">
         <v>-2.0910603359954941E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:37">
+    <row r="7" spans="1:34">
       <c r="A7" s="53">
         <v>4</v>
       </c>
@@ -19657,128 +19384,117 @@
         <v>7.2660297265900814E-2</v>
       </c>
       <c r="E7" s="69" t="str">
-        <f>'Tube B'!G5</f>
-        <v>G4</v>
-      </c>
-      <c r="F7" s="70">
-        <f>'Tube B'!F5</f>
-        <v>1.7554152179999996</v>
-      </c>
-      <c r="G7" s="71">
-        <v>2.4009899842676319E-2</v>
-      </c>
-      <c r="H7" s="69" t="str">
         <f>'Tube C'!G5</f>
         <v>A6</v>
       </c>
-      <c r="I7" s="70">
+      <c r="F7" s="70">
         <f>'Tube C'!F5</f>
         <v>1.7576553760000007</v>
       </c>
-      <c r="J7" s="71">
+      <c r="G7" s="71">
         <v>0.25663610566114275</v>
       </c>
-      <c r="K7" s="69" t="str">
+      <c r="H7" s="69" t="str">
         <f>'Tube D'!G5</f>
         <v>F9</v>
       </c>
-      <c r="L7" s="70">
+      <c r="I7" s="70">
         <f>'Tube D'!F5</f>
         <v>1.7586115410000005</v>
       </c>
-      <c r="M7" s="71">
+      <c r="J7" s="71">
         <v>0.11538158676452866</v>
       </c>
-      <c r="N7" s="69" t="str">
+      <c r="K7" s="69" t="str">
         <f>'Tube E'!G5</f>
         <v>D1</v>
       </c>
-      <c r="O7" s="70">
+      <c r="L7" s="70">
         <f>'Tube E'!F5</f>
         <v>1.7570543580000013</v>
       </c>
-      <c r="P7" s="71">
+      <c r="M7" s="71">
         <v>2.0192921107566094E-2</v>
       </c>
-      <c r="Q7" s="69" t="str">
+      <c r="N7" s="69" t="str">
         <f>'Tube F'!G5</f>
         <v>G4</v>
       </c>
-      <c r="R7" s="70">
+      <c r="O7" s="70">
         <f>'Tube F'!F5</f>
         <v>1.7580105230000012</v>
       </c>
-      <c r="S7" s="71">
+      <c r="P7" s="71">
         <v>0.12837373911484209</v>
       </c>
-      <c r="T7" s="69" t="str">
+      <c r="Q7" s="69" t="str">
         <f>'Tube G'!G5</f>
         <v>A6</v>
       </c>
-      <c r="U7" s="70">
+      <c r="R7" s="70">
         <f>'Tube G'!F5</f>
         <v>1.755688408000001</v>
       </c>
-      <c r="V7" s="71">
+      <c r="S7" s="71">
         <v>0.13293972430928641</v>
       </c>
-      <c r="W7" s="69" t="str">
+      <c r="T7" s="69" t="str">
         <f>'Tube H'!G5</f>
         <v>F9</v>
       </c>
-      <c r="X7" s="70">
+      <c r="U7" s="70">
         <f>'Tube H'!F5</f>
         <v>1.756453340000002</v>
       </c>
-      <c r="Y7" s="71">
+      <c r="V7" s="71">
         <v>0.11718281512992131</v>
       </c>
-      <c r="Z7" s="69" t="str">
+      <c r="W7" s="69" t="str">
         <f>'Tube I'!G5</f>
         <v>D1</v>
       </c>
-      <c r="AA7" s="70">
+      <c r="X7" s="70">
         <f>'Tube I'!F5</f>
         <v>1.7606877850000018</v>
       </c>
-      <c r="AB7" s="71">
+      <c r="Y7" s="71">
         <v>1.2460152460451271E-2</v>
       </c>
-      <c r="AC7" s="69" t="str">
+      <c r="Z7" s="69" t="str">
         <f>'Tube J'!G5</f>
         <v>G4</v>
       </c>
-      <c r="AD7" s="67">
+      <c r="AA7" s="67">
         <f>'Tube J'!F5</f>
         <v>1.758884731000002</v>
       </c>
-      <c r="AE7" s="71">
+      <c r="AB7" s="71">
         <v>-2.2428972228769037E-2</v>
       </c>
-      <c r="AF7" s="69" t="str">
+      <c r="AC7" s="69" t="str">
         <f>'Tube K'!G5</f>
         <v>A6</v>
       </c>
-      <c r="AG7" s="70">
+      <c r="AD7" s="70">
         <f>'Tube K'!F5</f>
         <v>1.7570816770000022</v>
       </c>
-      <c r="AH7" s="71">
+      <c r="AE7" s="71">
         <v>0.10169037691747307</v>
       </c>
-      <c r="AI7" s="69" t="str">
+      <c r="AF7" s="69" t="str">
         <f>'Tube L'!G5</f>
         <v>F9</v>
       </c>
-      <c r="AJ7" s="70">
+      <c r="AG7" s="70">
         <f>'Tube L'!F5</f>
         <v>1.7585569030000006</v>
       </c>
-      <c r="AK7" s="71">
+      <c r="AH7" s="71">
         <v>-1.0449687300819794E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:37">
+    <row r="8" spans="1:34">
       <c r="A8" s="53">
         <v>5</v>
       </c>
@@ -19794,128 +19510,117 @@
         <v>0.11443152649231252</v>
       </c>
       <c r="E8" s="69" t="str">
-        <f>'Tube B'!G6</f>
-        <v>F4</v>
-      </c>
-      <c r="F8" s="70">
-        <f>'Tube B'!F6</f>
-        <v>1.7466731380000002</v>
-      </c>
-      <c r="G8" s="71">
-        <v>0.31798564969779819</v>
-      </c>
-      <c r="H8" s="69" t="str">
         <f>'Tube C'!G6</f>
         <v>A7</v>
       </c>
-      <c r="I8" s="70">
+      <c r="F8" s="70">
         <f>'Tube C'!F6</f>
         <v>1.7543770960000007</v>
       </c>
-      <c r="J8" s="71">
+      <c r="G8" s="71">
         <v>0.34459079181071495</v>
       </c>
-      <c r="K8" s="69" t="str">
+      <c r="H8" s="69" t="str">
         <f>'Tube D'!G6</f>
         <v>G9</v>
       </c>
-      <c r="L8" s="70">
+      <c r="I8" s="70">
         <f>'Tube D'!F6</f>
         <v>1.7531477410000011</v>
       </c>
-      <c r="M8" s="71">
+      <c r="J8" s="71">
         <v>0.52117127441939826</v>
       </c>
-      <c r="N8" s="69" t="str">
+      <c r="K8" s="69" t="str">
         <f>'Tube E'!G6</f>
         <v>E1</v>
       </c>
-      <c r="O8" s="70">
+      <c r="L8" s="70">
         <f>'Tube E'!F6</f>
         <v>1.7537760780000013</v>
       </c>
-      <c r="P8" s="71">
+      <c r="M8" s="71">
         <v>0.11426642160834592</v>
       </c>
-      <c r="Q8" s="69" t="str">
+      <c r="N8" s="69" t="str">
         <f>'Tube F'!G6</f>
         <v>F4</v>
       </c>
-      <c r="R8" s="70">
+      <c r="O8" s="70">
         <f>'Tube F'!F6</f>
         <v>1.7525467230000018</v>
       </c>
-      <c r="S8" s="71">
+      <c r="P8" s="71">
         <v>0.32524628612832013</v>
       </c>
-      <c r="T8" s="69" t="str">
+      <c r="Q8" s="69" t="str">
         <f>'Tube G'!G6</f>
         <v>A7</v>
       </c>
-      <c r="U8" s="70">
+      <c r="R8" s="70">
         <f>'Tube G'!F6</f>
         <v>1.7502246080000017</v>
       </c>
-      <c r="V8" s="71">
+      <c r="S8" s="71">
         <v>0.22112345012686399</v>
       </c>
-      <c r="W8" s="69" t="str">
+      <c r="T8" s="69" t="str">
         <f>'Tube H'!G6</f>
         <v>G9</v>
       </c>
-      <c r="X8" s="70">
+      <c r="U8" s="70">
         <f>'Tube H'!F6</f>
         <v>1.7522735330000021</v>
       </c>
-      <c r="Y8" s="71">
+      <c r="V8" s="71">
         <v>0.32122481209932907</v>
       </c>
-      <c r="Z8" s="69" t="str">
+      <c r="W8" s="69" t="str">
         <f>'Tube I'!G6</f>
         <v>E1</v>
       </c>
-      <c r="AA8" s="70">
+      <c r="X8" s="70">
         <f>'Tube I'!F6</f>
         <v>1.7541312250000018</v>
       </c>
-      <c r="AB8" s="71">
+      <c r="Y8" s="71">
         <v>0.14061874647991901</v>
       </c>
-      <c r="AC8" s="69" t="str">
+      <c r="Z8" s="69" t="str">
         <f>'Tube J'!G6</f>
         <v>F4</v>
       </c>
-      <c r="AD8" s="67">
+      <c r="AA8" s="67">
         <f>'Tube J'!F6</f>
         <v>1.7534209310000026</v>
       </c>
-      <c r="AE8" s="71">
+      <c r="AB8" s="71">
         <v>4.6148579734906159E-2</v>
       </c>
-      <c r="AF8" s="69" t="str">
+      <c r="AC8" s="69" t="str">
         <f>'Tube K'!G6</f>
         <v>A7</v>
       </c>
-      <c r="AG8" s="70">
+      <c r="AD8" s="70">
         <f>'Tube K'!F6</f>
         <v>1.7539946300000029</v>
       </c>
-      <c r="AH8" s="71">
+      <c r="AE8" s="71">
         <v>0.47841242647912113</v>
       </c>
-      <c r="AI8" s="69" t="str">
+      <c r="AF8" s="69" t="str">
         <f>'Tube L'!G6</f>
         <v>G9</v>
       </c>
-      <c r="AJ8" s="70">
+      <c r="AG8" s="70">
         <f>'Tube L'!F6</f>
         <v>1.7530931030000012</v>
       </c>
-      <c r="AK8" s="71">
+      <c r="AH8" s="71">
         <v>2.4733997362934194E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:37">
+    <row r="9" spans="1:34">
       <c r="A9" s="53">
         <v>6</v>
       </c>
@@ -19931,128 +19636,117 @@
         <v>0.17513729765416394</v>
       </c>
       <c r="E9" s="69" t="str">
-        <f>'Tube B'!G7</f>
-        <v>E4</v>
-      </c>
-      <c r="F9" s="70">
-        <f>'Tube B'!F7</f>
-        <v>1.7401165779999985</v>
-      </c>
-      <c r="G9" s="71">
-        <v>0.73011011617552146</v>
-      </c>
-      <c r="H9" s="69" t="str">
         <f>'Tube C'!G7</f>
         <v>B7</v>
       </c>
-      <c r="I9" s="70">
+      <c r="F9" s="70">
         <f>'Tube C'!F7</f>
         <v>1.7478205360000008</v>
       </c>
-      <c r="J9" s="71">
+      <c r="G9" s="71">
         <v>0.91931010888072995</v>
       </c>
-      <c r="K9" s="69" t="str">
+      <c r="H9" s="69" t="str">
         <f>'Tube D'!G7</f>
         <v>H9</v>
       </c>
-      <c r="L9" s="70">
+      <c r="I9" s="70">
         <f>'Tube D'!F7</f>
         <v>1.7476839410000018</v>
       </c>
-      <c r="M9" s="71">
+      <c r="J9" s="71">
         <v>0.97167042451258678</v>
       </c>
-      <c r="N9" s="69" t="str">
+      <c r="K9" s="69" t="str">
         <f>'Tube E'!G7</f>
         <v>F1</v>
       </c>
-      <c r="O9" s="70">
+      <c r="L9" s="70">
         <f>'Tube E'!F7</f>
         <v>1.748312278000002</v>
       </c>
-      <c r="P9" s="71">
+      <c r="M9" s="71">
         <v>0.62985547241891815</v>
       </c>
-      <c r="Q9" s="69" t="str">
+      <c r="N9" s="69" t="str">
         <f>'Tube F'!G7</f>
         <v>E4</v>
       </c>
-      <c r="R9" s="70">
+      <c r="O9" s="70">
         <f>'Tube F'!F7</f>
         <v>1.7459901630000019</v>
       </c>
-      <c r="S9" s="71">
+      <c r="P9" s="71">
         <v>0.73471349044922896</v>
       </c>
-      <c r="T9" s="69" t="str">
+      <c r="Q9" s="69" t="str">
         <f>'Tube G'!G7</f>
         <v>B7</v>
       </c>
-      <c r="U9" s="70">
+      <c r="R9" s="70">
         <f>'Tube G'!F7</f>
         <v>1.7447608080000006</v>
       </c>
-      <c r="V9" s="71">
+      <c r="S9" s="71">
         <v>0.63059049936756428</v>
       </c>
-      <c r="W9" s="69" t="str">
+      <c r="T9" s="69" t="str">
         <f>'Tube H'!G7</f>
         <v>H9</v>
       </c>
-      <c r="X9" s="70">
+      <c r="U9" s="70">
         <f>'Tube H'!F7</f>
         <v>1.7457169730000004</v>
       </c>
-      <c r="Y9" s="72">
+      <c r="V9" s="72">
         <v>0.51553135554835705</v>
       </c>
-      <c r="Z9" s="69" t="str">
+      <c r="W9" s="69" t="str">
         <f>'Tube I'!G7</f>
         <v>F1</v>
       </c>
-      <c r="AA9" s="70">
+      <c r="X9" s="70">
         <f>'Tube I'!F7</f>
         <v>1.7475746650000001</v>
       </c>
-      <c r="AB9" s="71">
+      <c r="Y9" s="71">
         <v>1.1027853623099544</v>
       </c>
-      <c r="AC9" s="69" t="str">
+      <c r="Z9" s="69" t="str">
         <f>'Tube J'!G7</f>
         <v>E4</v>
       </c>
-      <c r="AD9" s="67">
+      <c r="AA9" s="67">
         <f>'Tube J'!F7</f>
         <v>1.7468643710000009</v>
       </c>
-      <c r="AE9" s="71">
+      <c r="AB9" s="71">
         <v>0.32458927825120382</v>
       </c>
-      <c r="AF9" s="69" t="str">
+      <c r="AC9" s="69" t="str">
         <f>'Tube K'!G7</f>
         <v>B7</v>
       </c>
-      <c r="AG9" s="70">
+      <c r="AD9" s="70">
         <f>'Tube K'!F7</f>
         <v>1.7485308300000018</v>
       </c>
-      <c r="AH9" s="71">
+      <c r="AE9" s="71">
         <v>1.4439479500735699</v>
       </c>
-      <c r="AI9" s="69" t="str">
+      <c r="AF9" s="69" t="str">
         <f>'Tube L'!G7</f>
         <v>H9</v>
       </c>
-      <c r="AJ9" s="70">
+      <c r="AG9" s="70">
         <f>'Tube L'!F7</f>
         <v>1.7476293029999983</v>
       </c>
-      <c r="AK9" s="71">
+      <c r="AH9" s="71">
         <v>0.12350744469910191</v>
       </c>
     </row>
-    <row r="10" spans="1:37">
+    <row r="10" spans="1:34">
       <c r="A10" s="53">
         <v>7</v>
       </c>
@@ -20068,128 +19762,117 @@
         <v>0.60117198054861587</v>
       </c>
       <c r="E10" s="69" t="str">
-        <f>'Tube B'!G8</f>
-        <v>D4</v>
-      </c>
-      <c r="F10" s="70">
-        <f>'Tube B'!F8</f>
-        <v>1.7348440109999999</v>
-      </c>
-      <c r="G10" s="71">
-        <v>1.4130782845891845</v>
-      </c>
-      <c r="H10" s="69" t="str">
         <f>'Tube C'!G8</f>
         <v>C7</v>
       </c>
-      <c r="I10" s="70">
+      <c r="F10" s="70">
         <f>'Tube C'!F8</f>
         <v>1.741263975999999</v>
       </c>
-      <c r="J10" s="71">
+      <c r="G10" s="71">
         <v>1.5982515985518353</v>
       </c>
-      <c r="K10" s="69" t="str">
+      <c r="H10" s="69" t="str">
         <f>'Tube D'!G8</f>
         <v>H10</v>
       </c>
-      <c r="L10" s="70">
+      <c r="I10" s="70">
         <f>'Tube D'!F8</f>
         <v>1.7422201409999989</v>
       </c>
-      <c r="M10" s="72">
+      <c r="J10" s="72">
         <v>1.8904632356857636</v>
       </c>
-      <c r="N10" s="69" t="str">
+      <c r="K10" s="69" t="str">
         <f>'Tube E'!G8</f>
         <v>G1</v>
       </c>
-      <c r="O10" s="70">
+      <c r="L10" s="70">
         <f>'Tube E'!F8</f>
         <v>1.7406629579999997</v>
       </c>
-      <c r="P10" s="71">
+      <c r="M10" s="71">
         <v>1.0487686046953948</v>
       </c>
-      <c r="Q10" s="69" t="str">
+      <c r="N10" s="69" t="str">
         <f>'Tube F'!G8</f>
         <v>D4</v>
       </c>
-      <c r="R10" s="70">
+      <c r="O10" s="70">
         <f>'Tube F'!F8</f>
         <v>1.7394336030000002</v>
       </c>
-      <c r="S10" s="71">
+      <c r="P10" s="71">
         <v>1.6513559717794204</v>
       </c>
-      <c r="T10" s="69" t="str">
+      <c r="Q10" s="69" t="str">
         <f>'Tube G'!G8</f>
         <v>C7</v>
       </c>
-      <c r="U10" s="70">
+      <c r="R10" s="70">
         <f>'Tube G'!F8</f>
         <v>1.7383954810000013</v>
       </c>
-      <c r="V10" s="71">
+      <c r="S10" s="71">
         <v>1.1906483963943246</v>
       </c>
-      <c r="W10" s="69" t="str">
+      <c r="T10" s="69" t="str">
         <f>'Tube H'!G8</f>
         <v>H10</v>
       </c>
-      <c r="X10" s="70">
+      <c r="U10" s="70">
         <f>'Tube H'!F8</f>
         <v>1.7393516460000011</v>
       </c>
-      <c r="Y10" s="72">
+      <c r="V10" s="72">
         <v>0.94818749522201395</v>
       </c>
-      <c r="Z10" s="69" t="str">
+      <c r="W10" s="69" t="str">
         <f>'Tube I'!G8</f>
         <v>G1</v>
       </c>
-      <c r="AA10" s="70">
+      <c r="X10" s="70">
         <f>'Tube I'!F8</f>
         <v>1.7421108650000008</v>
       </c>
-      <c r="AB10" s="71">
+      <c r="Y10" s="71">
         <v>1.1157263823029078</v>
       </c>
-      <c r="AC10" s="69" t="str">
+      <c r="Z10" s="69" t="str">
         <f>'Tube J'!G8</f>
         <v>D4</v>
       </c>
-      <c r="AD10" s="67">
+      <c r="AA10" s="67">
         <f>'Tube J'!F8</f>
         <v>1.740307811000001</v>
       </c>
-      <c r="AE10" s="71">
+      <c r="AB10" s="71">
         <v>0.78925734882526866</v>
       </c>
-      <c r="AF10" s="69" t="str">
+      <c r="AC10" s="69" t="str">
         <f>'Tube K'!G8</f>
         <v>C7</v>
       </c>
-      <c r="AG10" s="70">
+      <c r="AD10" s="70">
         <f>'Tube K'!F8</f>
         <v>1.7430670300000024</v>
       </c>
-      <c r="AH10" s="71">
+      <c r="AE10" s="71">
         <v>1.7666574730983386</v>
       </c>
-      <c r="AI10" s="69" t="str">
+      <c r="AF10" s="69" t="str">
         <f>'Tube L'!G8</f>
         <v>H10</v>
       </c>
-      <c r="AJ10" s="70">
+      <c r="AG10" s="70">
         <f>'Tube L'!F8</f>
         <v>1.7421655029999989</v>
       </c>
-      <c r="AK10" s="72">
+      <c r="AH10" s="72">
         <v>0.39474657457834422</v>
       </c>
     </row>
-    <row r="11" spans="1:37">
+    <row r="11" spans="1:34">
       <c r="A11" s="53">
         <v>8</v>
       </c>
@@ -20205,128 +19888,117 @@
         <v>1.4218637041600131</v>
       </c>
       <c r="E11" s="69" t="str">
-        <f>'Tube B'!G9</f>
-        <v>C4</v>
-      </c>
-      <c r="F11" s="70">
-        <f>'Tube B'!F9</f>
-        <v>1.7304729710000011</v>
-      </c>
-      <c r="G11" s="71">
-        <v>3.5515475229015103</v>
-      </c>
-      <c r="H11" s="69" t="str">
         <f>'Tube C'!G9</f>
         <v>D7</v>
       </c>
-      <c r="I11" s="70">
+      <c r="F11" s="70">
         <f>'Tube C'!F9</f>
         <v>1.7347074160000009</v>
       </c>
-      <c r="J11" s="71">
+      <c r="G11" s="71">
         <v>2.2262484626414114</v>
       </c>
-      <c r="K11" s="69" t="str">
+      <c r="H11" s="69" t="str">
         <f>'Tube D'!G9</f>
         <v>G10</v>
       </c>
-      <c r="L11" s="70">
+      <c r="I11" s="70">
         <f>'Tube D'!F9</f>
         <v>1.7358548139999996</v>
       </c>
-      <c r="M11" s="72">
+      <c r="J11" s="72">
         <v>3.2777996049536902</v>
       </c>
-      <c r="N11" s="69" t="str">
+      <c r="K11" s="69" t="str">
         <f>'Tube E'!G9</f>
         <v>H1</v>
       </c>
-      <c r="O11" s="70">
+      <c r="L11" s="70">
         <f>'Tube E'!F9</f>
         <v>1.7351991580000004</v>
       </c>
-      <c r="P11" s="71">
+      <c r="M11" s="71">
         <v>2.0346041768170005</v>
       </c>
-      <c r="Q11" s="69" t="str">
+      <c r="N11" s="69" t="str">
         <f>'Tube F'!G9</f>
         <v>C4</v>
       </c>
-      <c r="R11" s="70">
+      <c r="O11" s="70">
         <f>'Tube F'!F9</f>
         <v>1.7339698030000008</v>
       </c>
-      <c r="S11" s="71">
+      <c r="P11" s="71">
         <v>2.6344990199408254</v>
       </c>
-      <c r="T11" s="69" t="str">
+      <c r="Q11" s="69" t="str">
         <f>'Tube G'!G9</f>
         <v>D7</v>
       </c>
-      <c r="U11" s="70">
+      <c r="R11" s="70">
         <f>'Tube G'!F9</f>
         <v>1.7318389210000014</v>
       </c>
-      <c r="V11" s="71">
+      <c r="S11" s="71">
         <v>2.8089950445250218</v>
       </c>
-      <c r="W11" s="69" t="str">
+      <c r="T11" s="69" t="str">
         <f>'Tube H'!G9</f>
         <v>G10</v>
       </c>
-      <c r="X11" s="70">
+      <c r="U11" s="70">
         <f>'Tube H'!F9</f>
         <v>1.7338878460000018</v>
       </c>
-      <c r="Y11" s="72">
+      <c r="V11" s="72">
         <v>2.178049227812457</v>
       </c>
-      <c r="Z11" s="69" t="str">
+      <c r="W11" s="69" t="str">
         <f>'Tube I'!G9</f>
         <v>H1</v>
       </c>
-      <c r="AA11" s="70">
+      <c r="X11" s="70">
         <f>'Tube I'!F9</f>
         <v>1.7355543050000026</v>
       </c>
-      <c r="AB11" s="71">
+      <c r="Y11" s="71">
         <v>1.0867206095497497</v>
       </c>
-      <c r="AC11" s="69" t="str">
+      <c r="Z11" s="69" t="str">
         <f>'Tube J'!G9</f>
         <v>C4</v>
       </c>
-      <c r="AD11" s="67">
+      <c r="AA11" s="67">
         <f>'Tube J'!F9</f>
         <v>1.7348440110000016</v>
       </c>
-      <c r="AE11" s="71">
+      <c r="AB11" s="71">
         <v>1.7486699041710096</v>
       </c>
-      <c r="AF11" s="69" t="str">
+      <c r="AC11" s="69" t="str">
         <f>'Tube K'!G9</f>
         <v>D7</v>
       </c>
-      <c r="AG11" s="70">
+      <c r="AD11" s="70">
         <f>'Tube K'!F9</f>
         <v>1.7365104700000025</v>
       </c>
-      <c r="AH11" s="71">
+      <c r="AE11" s="71">
         <v>2.8633022065685068</v>
       </c>
-      <c r="AI11" s="69" t="str">
+      <c r="AF11" s="69" t="str">
         <f>'Tube L'!G9</f>
         <v>G10</v>
       </c>
-      <c r="AJ11" s="70">
+      <c r="AG11" s="70">
         <f>'Tube L'!F9</f>
         <v>1.7345161830000002</v>
       </c>
-      <c r="AK11" s="72">
+      <c r="AH11" s="72">
         <v>1.0992751698169136</v>
       </c>
     </row>
-    <row r="12" spans="1:37">
+    <row r="12" spans="1:34">
       <c r="A12" s="53">
         <v>9</v>
       </c>
@@ -20342,128 +20014,117 @@
         <v>5.1466181680154124</v>
       </c>
       <c r="E12" s="69" t="str">
-        <f>'Tube B'!G10</f>
-        <v>B4</v>
-      </c>
-      <c r="F12" s="70">
-        <f>'Tube B'!F10</f>
-        <v>1.7250091710000017</v>
-      </c>
-      <c r="G12" s="71">
-        <v>13.584024154015362</v>
-      </c>
-      <c r="H12" s="69" t="str">
         <f>'Tube C'!G10</f>
         <v>E7</v>
       </c>
-      <c r="I12" s="70">
+      <c r="F12" s="70">
         <f>'Tube C'!F10</f>
         <v>1.7294348490000004</v>
       </c>
-      <c r="J12" s="71">
+      <c r="G12" s="71">
         <v>5.414453524775781</v>
       </c>
-      <c r="K12" s="69" t="str">
+      <c r="H12" s="69" t="str">
         <f>'Tube D'!G10</f>
         <v>F10</v>
       </c>
-      <c r="L12" s="70">
+      <c r="I12" s="70">
         <f>'Tube D'!F10</f>
         <v>1.7292982540000015</v>
       </c>
-      <c r="M12" s="72">
+      <c r="J12" s="72">
         <v>4.6410878365561024</v>
       </c>
-      <c r="N12" s="69" t="str">
+      <c r="K12" s="69" t="str">
         <f>'Tube E'!G10</f>
         <v>H2</v>
       </c>
-      <c r="O12" s="70">
+      <c r="L12" s="70">
         <f>'Tube E'!F10</f>
         <v>1.729735358000001</v>
       </c>
-      <c r="P12" s="71">
+      <c r="M12" s="71">
         <v>4.8797001326867573</v>
       </c>
-      <c r="Q12" s="69" t="str">
+      <c r="N12" s="69" t="str">
         <f>'Tube F'!G10</f>
         <v>B4</v>
       </c>
-      <c r="R12" s="70">
+      <c r="O12" s="70">
         <f>'Tube F'!F10</f>
         <v>1.7276044760000016</v>
       </c>
-      <c r="S12" s="71">
+      <c r="P12" s="71">
         <v>6.0654210856304367</v>
       </c>
-      <c r="T12" s="69" t="str">
+      <c r="Q12" s="69" t="str">
         <f>'Tube G'!G10</f>
         <v>E7</v>
       </c>
-      <c r="U12" s="70">
+      <c r="R12" s="70">
         <f>'Tube G'!F10</f>
         <v>1.726375121000002</v>
       </c>
-      <c r="V12" s="71">
+      <c r="S12" s="71">
         <v>6.5436872570270843</v>
       </c>
-      <c r="W12" s="69" t="str">
+      <c r="T12" s="69" t="str">
         <f>'Tube H'!G10</f>
         <v>F10</v>
       </c>
-      <c r="X12" s="70">
+      <c r="U12" s="70">
         <f>'Tube H'!F10</f>
         <v>1.7284240460000024</v>
       </c>
-      <c r="Y12" s="72">
+      <c r="V12" s="72">
         <v>7.6831056931296189</v>
       </c>
-      <c r="Z12" s="69" t="str">
+      <c r="W12" s="69" t="str">
         <f>'Tube I'!G10</f>
         <v>H2</v>
       </c>
-      <c r="AA12" s="70">
+      <c r="X12" s="70">
         <f>'Tube I'!F10</f>
         <v>1.7300905050000033</v>
       </c>
-      <c r="AB12" s="71">
+      <c r="Y12" s="71">
         <v>2.0545351039658697</v>
       </c>
-      <c r="AC12" s="69" t="str">
+      <c r="Z12" s="69" t="str">
         <f>'Tube J'!G10</f>
         <v>B4</v>
       </c>
-      <c r="AD12" s="67">
+      <c r="AA12" s="67">
         <f>'Tube J'!F10</f>
         <v>1.7293802110000023</v>
       </c>
-      <c r="AE12" s="71">
+      <c r="AB12" s="71">
         <v>4.0955750621904334</v>
       </c>
-      <c r="AF12" s="69" t="str">
+      <c r="AC12" s="69" t="str">
         <f>'Tube K'!G10</f>
         <v>E7</v>
       </c>
-      <c r="AG12" s="70">
+      <c r="AD12" s="70">
         <f>'Tube K'!F10</f>
         <v>1.7299539100000025</v>
       </c>
-      <c r="AH12" s="71">
+      <c r="AE12" s="71">
         <v>5.3204983056324719</v>
       </c>
-      <c r="AI12" s="69" t="str">
+      <c r="AF12" s="69" t="str">
         <f>'Tube L'!G10</f>
         <v>F10</v>
       </c>
-      <c r="AJ12" s="70">
+      <c r="AG12" s="70">
         <f>'Tube L'!F10</f>
         <v>1.7290523830000009</v>
       </c>
-      <c r="AK12" s="72">
+      <c r="AH12" s="72">
         <v>3.2587188990703004</v>
       </c>
     </row>
-    <row r="13" spans="1:37">
+    <row r="13" spans="1:34">
       <c r="A13" s="53">
         <v>10</v>
       </c>
@@ -20479,128 +20140,117 @@
         <v>8.8576741299264281</v>
       </c>
       <c r="E13" s="69" t="str">
-        <f>'Tube B'!G11</f>
-        <v>A4</v>
-      </c>
-      <c r="F13" s="70">
-        <f>'Tube B'!F11</f>
-        <v>1.7195453710000024</v>
-      </c>
-      <c r="G13" s="71">
-        <v>18.739577449274012</v>
-      </c>
-      <c r="H13" s="69" t="str">
         <f>'Tube C'!G11</f>
         <v>F7</v>
       </c>
-      <c r="I13" s="70">
+      <c r="F13" s="70">
         <f>'Tube C'!F11</f>
         <v>1.7228782890000023</v>
       </c>
-      <c r="J13" s="71">
+      <c r="G13" s="71">
         <v>10.248029867965711</v>
       </c>
-      <c r="K13" s="69" t="str">
+      <c r="H13" s="69" t="str">
         <f>'Tube D'!G11</f>
         <v>E10</v>
       </c>
-      <c r="L13" s="70">
+      <c r="I13" s="70">
         <f>'Tube D'!F11</f>
         <v>1.7249272140000009</v>
       </c>
-      <c r="M13" s="71">
+      <c r="J13" s="71">
         <v>7.8071254363598017</v>
       </c>
-      <c r="N13" s="69" t="str">
+      <c r="K13" s="69" t="str">
         <f>'Tube E'!G11</f>
         <v>G2</v>
       </c>
-      <c r="O13" s="70">
+      <c r="L13" s="70">
         <f>'Tube E'!F11</f>
         <v>1.7242715580000016</v>
       </c>
-      <c r="P13" s="72">
+      <c r="M13" s="72">
         <v>10.448404763008121</v>
       </c>
-      <c r="Q13" s="69" t="str">
+      <c r="N13" s="69" t="str">
         <f>'Tube F'!G11</f>
         <v>A4</v>
       </c>
-      <c r="R13" s="70">
+      <c r="O13" s="70">
         <f>'Tube F'!F11</f>
         <v>1.723233436000001</v>
       </c>
-      <c r="S13" s="71">
+      <c r="P13" s="71">
         <v>9.2960645386640177</v>
       </c>
-      <c r="T13" s="69" t="str">
+      <c r="Q13" s="69" t="str">
         <f>'Tube G'!G11</f>
         <v>F7</v>
       </c>
-      <c r="U13" s="70">
+      <c r="R13" s="70">
         <f>'Tube G'!F11</f>
         <v>1.7209113210000009</v>
       </c>
-      <c r="V13" s="71">
+      <c r="S13" s="71">
         <v>8.484199816636302</v>
       </c>
-      <c r="W13" s="69" t="str">
+      <c r="T13" s="69" t="str">
         <f>'Tube H'!G11</f>
         <v>E10</v>
       </c>
-      <c r="X13" s="70">
+      <c r="U13" s="70">
         <f>'Tube H'!F11</f>
         <v>1.7220587190000014</v>
       </c>
-      <c r="Y13" s="72">
+      <c r="V13" s="72">
         <v>12.959152567073986</v>
       </c>
-      <c r="Z13" s="69" t="str">
+      <c r="W13" s="69" t="str">
         <f>'Tube I'!G11</f>
         <v>G2</v>
       </c>
-      <c r="AA13" s="70">
+      <c r="X13" s="70">
         <f>'Tube I'!F11</f>
         <v>1.7246267050000004</v>
       </c>
-      <c r="AB13" s="71">
+      <c r="Y13" s="71">
         <v>7.4948680118927529</v>
       </c>
-      <c r="AC13" s="69" t="str">
+      <c r="Z13" s="69" t="str">
         <f>'Tube J'!G11</f>
         <v>A4</v>
       </c>
-      <c r="AD13" s="67">
+      <c r="AA13" s="67">
         <f>'Tube J'!F11</f>
         <v>1.7239164110000011</v>
       </c>
-      <c r="AE13" s="71">
+      <c r="AB13" s="71">
         <v>9.4129539972036849</v>
       </c>
-      <c r="AF13" s="69" t="str">
+      <c r="AC13" s="69" t="str">
         <f>'Tube K'!G11</f>
         <v>F7</v>
       </c>
-      <c r="AG13" s="70">
+      <c r="AD13" s="70">
         <f>'Tube K'!F11</f>
         <v>1.7244901100000014</v>
       </c>
-      <c r="AH13" s="71">
+      <c r="AE13" s="71">
         <v>9.4743514571026068</v>
       </c>
-      <c r="AI13" s="69" t="str">
+      <c r="AF13" s="69" t="str">
         <f>'Tube L'!G11</f>
         <v>E10</v>
       </c>
-      <c r="AJ13" s="70">
+      <c r="AG13" s="70">
         <f>'Tube L'!F11</f>
         <v>1.7224958229999991</v>
       </c>
-      <c r="AK13" s="71">
+      <c r="AH13" s="71">
         <v>7.209387305910643</v>
       </c>
     </row>
-    <row r="14" spans="1:37">
+    <row r="14" spans="1:34">
       <c r="A14" s="53">
         <v>11</v>
       </c>
@@ -20616,128 +20266,117 @@
         <v>6.0677736655908179</v>
       </c>
       <c r="E14" s="69" t="str">
-        <f>'Tube B'!G12</f>
-        <v>A5</v>
-      </c>
-      <c r="F14" s="70">
-        <f>'Tube B'!F12</f>
-        <v>1.715365563999999</v>
-      </c>
-      <c r="G14" s="71">
-        <v>17.39345175365364</v>
-      </c>
-      <c r="H14" s="69" t="str">
         <f>'Tube C'!G12</f>
         <v>G7</v>
       </c>
-      <c r="I14" s="70">
+      <c r="F14" s="70">
         <f>'Tube C'!F12</f>
         <v>1.7163217290000006</v>
       </c>
-      <c r="J14" s="73">
+      <c r="G14" s="73">
         <v>9.8750715797998527</v>
       </c>
-      <c r="K14" s="69" t="str">
+      <c r="H14" s="69" t="str">
         <f>'Tube D'!G12</f>
         <v>D10</v>
       </c>
-      <c r="L14" s="74">
+      <c r="I14" s="74">
         <f>'Tube D'!F12</f>
         <v>1.7172778940000004</v>
       </c>
-      <c r="M14" s="73">
+      <c r="J14" s="73">
         <v>6.5264272952746545</v>
       </c>
-      <c r="N14" s="69" t="str">
+      <c r="K14" s="69" t="str">
         <f>'Tube E'!G12</f>
         <v>F2</v>
       </c>
-      <c r="O14" s="70">
+      <c r="L14" s="70">
         <f>'Tube E'!F12</f>
         <v>1.7188077580000005</v>
       </c>
-      <c r="P14" s="72">
+      <c r="M14" s="72">
         <v>7.7680836684905925</v>
       </c>
-      <c r="Q14" s="69" t="str">
+      <c r="N14" s="69" t="str">
         <f>'Tube F'!G12</f>
         <v>A5</v>
       </c>
-      <c r="R14" s="70">
+      <c r="O14" s="70">
         <f>'Tube F'!F12</f>
         <v>1.7166768760000011</v>
       </c>
-      <c r="S14" s="71">
+      <c r="P14" s="71">
         <v>6.9517318203743299</v>
       </c>
-      <c r="T14" s="69" t="str">
+      <c r="Q14" s="69" t="str">
         <f>'Tube G'!G12</f>
         <v>G7</v>
       </c>
-      <c r="U14" s="70">
+      <c r="R14" s="70">
         <f>'Tube G'!F12</f>
         <v>1.7145459940000016</v>
       </c>
-      <c r="V14" s="71">
+      <c r="S14" s="71">
         <v>5.7960035129187952</v>
       </c>
-      <c r="W14" s="69" t="str">
+      <c r="T14" s="69" t="str">
         <f>'Tube H'!G12</f>
         <v>D10</v>
       </c>
-      <c r="X14" s="70">
+      <c r="U14" s="70">
         <f>'Tube H'!F12</f>
         <v>1.7165949190000021</v>
       </c>
-      <c r="Y14" s="72">
+      <c r="V14" s="72">
         <v>11.848731390811642</v>
       </c>
-      <c r="Z14" s="69" t="str">
+      <c r="W14" s="69" t="str">
         <f>'Tube I'!G12</f>
         <v>F2</v>
       </c>
-      <c r="AA14" s="70">
+      <c r="X14" s="70">
         <f>'Tube I'!F12</f>
         <v>1.7180701450000022</v>
       </c>
-      <c r="AB14" s="71">
+      <c r="Y14" s="71">
         <v>8.4287381100564627</v>
       </c>
-      <c r="AC14" s="69" t="str">
+      <c r="Z14" s="69" t="str">
         <f>'Tube J'!G12</f>
         <v>A5</v>
       </c>
-      <c r="AD14" s="67">
+      <c r="AA14" s="67">
         <f>'Tube J'!F12</f>
         <v>1.7197366040000013</v>
       </c>
-      <c r="AE14" s="71">
+      <c r="AB14" s="71">
         <v>8.5864739361870779</v>
       </c>
-      <c r="AF14" s="69" t="str">
+      <c r="AC14" s="69" t="str">
         <f>'Tube K'!G12</f>
         <v>G7</v>
       </c>
-      <c r="AG14" s="70">
+      <c r="AD14" s="70">
         <f>'Tube K'!F12</f>
         <v>1.7201190700000009</v>
       </c>
-      <c r="AH14" s="71">
+      <c r="AE14" s="71">
         <v>10.538205641665931</v>
       </c>
-      <c r="AI14" s="69" t="str">
+      <c r="AF14" s="69" t="str">
         <f>'Tube L'!G12</f>
         <v>D10</v>
       </c>
-      <c r="AJ14" s="70">
+      <c r="AG14" s="70">
         <f>'Tube L'!F12</f>
         <v>1.7159392629999992</v>
       </c>
-      <c r="AK14" s="73">
+      <c r="AH14" s="73">
         <v>8.3126496119757949</v>
       </c>
     </row>
-    <row r="15" spans="1:37">
+    <row r="15" spans="1:34">
       <c r="A15" s="53">
         <v>12</v>
       </c>
@@ -20753,128 +20392,117 @@
         <v>4.5785858109472954</v>
       </c>
       <c r="E15" s="69" t="str">
-        <f>'Tube B'!G13</f>
-        <v>B5</v>
-      </c>
-      <c r="F15" s="70">
-        <f>'Tube B'!F13</f>
-        <v>1.7088090040000008</v>
-      </c>
-      <c r="G15" s="71">
-        <v>10.341034271698277</v>
-      </c>
-      <c r="H15" s="69" t="str">
         <f>'Tube C'!G13</f>
         <v>H7</v>
       </c>
-      <c r="I15" s="70">
+      <c r="F15" s="70">
         <f>'Tube C'!F13</f>
         <v>1.7108579290000012</v>
       </c>
-      <c r="J15" s="73">
+      <c r="G15" s="73">
         <v>5.7761061314182589</v>
       </c>
-      <c r="K15" s="69" t="str">
+      <c r="H15" s="69" t="str">
         <f>'Tube D'!G13</f>
         <v>C10</v>
       </c>
-      <c r="L15" s="74">
+      <c r="I15" s="74">
         <f>'Tube D'!F13</f>
         <v>1.7107213340000005</v>
       </c>
-      <c r="M15" s="73">
+      <c r="J15" s="73">
         <v>4.3741264027013615</v>
       </c>
-      <c r="N15" s="69" t="str">
+      <c r="K15" s="69" t="str">
         <f>'Tube E'!G13</f>
         <v>E2</v>
       </c>
-      <c r="O15" s="70">
+      <c r="L15" s="70">
         <f>'Tube E'!F13</f>
         <v>1.7124424310000013</v>
       </c>
-      <c r="P15" s="72">
+      <c r="M15" s="72">
         <v>5.1851770612240697</v>
       </c>
-      <c r="Q15" s="69" t="str">
+      <c r="N15" s="69" t="str">
         <f>'Tube F'!G13</f>
         <v>B5</v>
       </c>
-      <c r="R15" s="70">
+      <c r="O15" s="70">
         <f>'Tube F'!F13</f>
         <v>1.7101203160000011</v>
       </c>
-      <c r="S15" s="71">
+      <c r="P15" s="71">
         <v>4.6609421496875596</v>
       </c>
-      <c r="T15" s="69" t="str">
+      <c r="Q15" s="69" t="str">
         <f>'Tube G'!G13</f>
         <v>H7</v>
       </c>
-      <c r="U15" s="70">
+      <c r="R15" s="70">
         <f>'Tube G'!F13</f>
         <v>1.7090821940000023</v>
       </c>
-      <c r="V15" s="71">
+      <c r="S15" s="71">
         <v>3.8532910201850341</v>
       </c>
-      <c r="W15" s="69" t="str">
+      <c r="T15" s="69" t="str">
         <f>'Tube H'!G13</f>
         <v>C10</v>
       </c>
-      <c r="X15" s="70">
+      <c r="U15" s="70">
         <f>'Tube H'!F13</f>
         <v>1.7100383590000021</v>
       </c>
-      <c r="Y15" s="71">
+      <c r="V15" s="71">
         <v>6.2419060531820802</v>
       </c>
-      <c r="Z15" s="69" t="str">
+      <c r="W15" s="69" t="str">
         <f>'Tube I'!G13</f>
         <v>E2</v>
       </c>
-      <c r="AA15" s="70">
+      <c r="X15" s="70">
         <f>'Tube I'!F13</f>
         <v>1.7126063450000029</v>
       </c>
-      <c r="AB15" s="71">
+      <c r="Y15" s="71">
         <v>7.2434117191931096</v>
       </c>
-      <c r="AC15" s="69" t="str">
+      <c r="Z15" s="69" t="str">
         <f>'Tube J'!G13</f>
         <v>B5</v>
       </c>
-      <c r="AD15" s="67">
+      <c r="AA15" s="67">
         <f>'Tube J'!F13</f>
         <v>1.7120872840000025</v>
       </c>
-      <c r="AE15" s="71">
+      <c r="AB15" s="71">
         <v>5.1241726040028794</v>
       </c>
-      <c r="AF15" s="69" t="str">
+      <c r="AC15" s="69" t="str">
         <f>'Tube K'!G13</f>
         <v>H7</v>
       </c>
-      <c r="AG15" s="70">
+      <c r="AD15" s="70">
         <f>'Tube K'!F13</f>
         <v>1.7157480300000021</v>
       </c>
-      <c r="AH15" s="71">
+      <c r="AE15" s="71">
         <v>9.4165850865934537</v>
       </c>
-      <c r="AI15" s="69" t="str">
+      <c r="AF15" s="69" t="str">
         <f>'Tube L'!G13</f>
         <v>C10</v>
       </c>
-      <c r="AJ15" s="70">
+      <c r="AG15" s="70">
         <f>'Tube L'!F13</f>
         <v>1.7104754629999999</v>
       </c>
-      <c r="AK15" s="73">
+      <c r="AH15" s="73">
         <v>5.9065524874779038</v>
       </c>
     </row>
-    <row r="16" spans="1:37">
+    <row r="16" spans="1:34">
       <c r="A16" s="53">
         <v>13</v>
       </c>
@@ -20890,128 +20518,117 @@
         <v>1.7289842798222337</v>
       </c>
       <c r="E16" s="69" t="str">
-        <f>'Tube B'!G14</f>
-        <v>C5</v>
-      </c>
-      <c r="F16" s="70">
-        <f>'Tube B'!F14</f>
-        <v>1.7022524440000009</v>
-      </c>
-      <c r="G16" s="71">
-        <v>3.6435516872993543</v>
-      </c>
-      <c r="H16" s="69" t="str">
         <f>'Tube C'!G14</f>
         <v>H8</v>
       </c>
-      <c r="I16" s="70">
+      <c r="F16" s="70">
         <f>'Tube C'!F14</f>
         <v>1.7055853620000008</v>
       </c>
-      <c r="J16" s="73">
+      <c r="G16" s="73">
         <v>2.2237597163756839</v>
       </c>
-      <c r="K16" s="69" t="str">
+      <c r="H16" s="69" t="str">
         <f>'Tube D'!G14</f>
         <v>B10</v>
       </c>
-      <c r="L16" s="74">
+      <c r="I16" s="74">
         <f>'Tube D'!F14</f>
         <v>1.7052575340000011</v>
       </c>
-      <c r="M16" s="73">
+      <c r="J16" s="73">
         <v>2.1790475529112108</v>
       </c>
-      <c r="N16" s="69" t="str">
+      <c r="K16" s="69" t="str">
         <f>'Tube E'!G14</f>
         <v>D2</v>
       </c>
-      <c r="O16" s="70">
+      <c r="L16" s="70">
         <f>'Tube E'!F14</f>
         <v>1.7058858710000013</v>
       </c>
-      <c r="P16" s="72">
+      <c r="M16" s="72">
         <v>2.5916236367787597</v>
       </c>
-      <c r="Q16" s="69" t="str">
+      <c r="N16" s="69" t="str">
         <f>'Tube F'!G14</f>
         <v>C5</v>
       </c>
-      <c r="R16" s="70">
+      <c r="O16" s="70">
         <f>'Tube F'!F14</f>
         <v>1.7046565160000018</v>
       </c>
-      <c r="S16" s="71">
+      <c r="P16" s="71">
         <v>1.9565401720778517</v>
       </c>
-      <c r="T16" s="69" t="str">
+      <c r="Q16" s="69" t="str">
         <f>'Tube G'!G14</f>
         <v>H8</v>
       </c>
-      <c r="U16" s="70">
+      <c r="R16" s="70">
         <f>'Tube G'!F14</f>
         <v>1.7038096270000036</v>
       </c>
-      <c r="V16" s="71">
+      <c r="S16" s="71">
         <v>1.644160667453348</v>
       </c>
-      <c r="W16" s="69" t="str">
+      <c r="T16" s="69" t="str">
         <f>'Tube H'!G14</f>
         <v>B10</v>
       </c>
-      <c r="X16" s="70">
+      <c r="U16" s="70">
         <f>'Tube H'!F14</f>
         <v>1.7045745590000028</v>
       </c>
-      <c r="Y16" s="71">
+      <c r="V16" s="71">
         <v>2.9373699231850581</v>
       </c>
-      <c r="Z16" s="69" t="str">
+      <c r="W16" s="69" t="str">
         <f>'Tube I'!G14</f>
         <v>D2</v>
       </c>
-      <c r="AA16" s="70">
+      <c r="X16" s="70">
         <f>'Tube I'!F14</f>
         <v>1.7060497850000029</v>
       </c>
-      <c r="AB16" s="71">
+      <c r="Y16" s="71">
         <v>3.7517923936901405</v>
       </c>
-      <c r="AC16" s="69" t="str">
+      <c r="Z16" s="69" t="str">
         <f>'Tube J'!G14</f>
         <v>C5</v>
       </c>
-      <c r="AD16" s="67">
+      <c r="AA16" s="67">
         <f>'Tube J'!F14</f>
         <v>1.7066234840000032</v>
       </c>
-      <c r="AE16" s="71">
+      <c r="AB16" s="71">
         <v>2.373434423634627</v>
       </c>
-      <c r="AF16" s="69" t="str">
+      <c r="AC16" s="69" t="str">
         <f>'Tube K'!G14</f>
         <v>H8</v>
       </c>
-      <c r="AG16" s="70">
+      <c r="AD16" s="70">
         <f>'Tube K'!F14</f>
         <v>1.7102842300000027</v>
       </c>
-      <c r="AH16" s="71">
+      <c r="AE16" s="71">
         <v>5.0832505567236339</v>
       </c>
-      <c r="AI16" s="69" t="str">
+      <c r="AF16" s="69" t="str">
         <f>'Tube L'!G14</f>
         <v>B10</v>
       </c>
-      <c r="AJ16" s="70">
+      <c r="AG16" s="70">
         <f>'Tube L'!F14</f>
         <v>1.7050116629999987</v>
       </c>
-      <c r="AK16" s="73">
+      <c r="AH16" s="73">
         <v>2.2809503026439621</v>
       </c>
     </row>
-    <row r="17" spans="1:37">
+    <row r="17" spans="1:34">
       <c r="A17" s="53">
         <v>14</v>
       </c>
@@ -21027,128 +20644,117 @@
         <v>0.84883431330183934</v>
       </c>
       <c r="E17" s="69" t="str">
-        <f>'Tube B'!G15</f>
-        <v>D5</v>
-      </c>
-      <c r="F17" s="70">
-        <f>'Tube B'!F15</f>
-        <v>1.6967886439999997</v>
-      </c>
-      <c r="G17" s="71">
-        <v>1.6811725149499128</v>
-      </c>
-      <c r="H17" s="69" t="str">
         <f>'Tube C'!G15</f>
         <v>G8</v>
       </c>
-      <c r="I17" s="70">
+      <c r="F17" s="70">
         <f>'Tube C'!F15</f>
         <v>1.7001215620000014</v>
       </c>
-      <c r="J17" s="71">
+      <c r="G17" s="71">
         <v>1.1636075162927579</v>
       </c>
-      <c r="K17" s="69" t="str">
+      <c r="H17" s="69" t="str">
         <f>'Tube D'!G15</f>
         <v>A10</v>
       </c>
-      <c r="L17" s="70">
+      <c r="I17" s="70">
         <f>'Tube D'!F15</f>
         <v>1.6999849670000025</v>
       </c>
-      <c r="M17" s="71">
+      <c r="J17" s="71">
         <v>0.76124516909102802</v>
       </c>
-      <c r="N17" s="69" t="str">
+      <c r="K17" s="69" t="str">
         <f>'Tube E'!G15</f>
         <v>C2</v>
       </c>
-      <c r="O17" s="70">
+      <c r="L17" s="70">
         <f>'Tube E'!F15</f>
         <v>1.7004220710000002</v>
       </c>
-      <c r="P17" s="72">
+      <c r="M17" s="72">
         <v>1.1598910385586081</v>
       </c>
-      <c r="Q17" s="69" t="str">
+      <c r="N17" s="69" t="str">
         <f>'Tube F'!G15</f>
         <v>D5</v>
       </c>
-      <c r="R17" s="70">
+      <c r="O17" s="70">
         <f>'Tube F'!F15</f>
         <v>1.6991927160000007</v>
       </c>
-      <c r="S17" s="71">
+      <c r="P17" s="71">
         <v>0.9050870781416086</v>
       </c>
-      <c r="T17" s="69" t="str">
+      <c r="Q17" s="69" t="str">
         <f>'Tube G'!G15</f>
         <v>G8</v>
       </c>
-      <c r="U17" s="70">
+      <c r="R17" s="70">
         <f>'Tube G'!F15</f>
         <v>1.6983458270000007</v>
       </c>
-      <c r="V17" s="71">
+      <c r="S17" s="71">
         <v>0.7873204749648065</v>
       </c>
-      <c r="W17" s="69" t="str">
+      <c r="T17" s="69" t="str">
         <f>'Tube H'!G15</f>
         <v>A10</v>
       </c>
-      <c r="X17" s="70">
+      <c r="U17" s="70">
         <f>'Tube H'!F15</f>
         <v>1.6936469590000023</v>
       </c>
-      <c r="Y17" s="71">
+      <c r="V17" s="71">
         <v>1.37197803178342</v>
       </c>
-      <c r="Z17" s="69" t="str">
+      <c r="W17" s="69" t="str">
         <f>'Tube I'!G15</f>
         <v>C2</v>
       </c>
-      <c r="AA17" s="70">
+      <c r="X17" s="70">
         <f>'Tube I'!F15</f>
         <v>1.7007772180000007</v>
       </c>
-      <c r="AB17" s="71">
+      <c r="Y17" s="71">
         <v>1.489009535698713</v>
       </c>
-      <c r="AC17" s="69" t="str">
+      <c r="Z17" s="69" t="str">
         <f>'Tube J'!G15</f>
         <v>D5</v>
       </c>
-      <c r="AD17" s="67">
+      <c r="AA17" s="67">
         <f>'Tube J'!F15</f>
         <v>1.7011596840000021</v>
       </c>
-      <c r="AE17" s="71">
+      <c r="AB17" s="71">
         <v>1.1403036154201516</v>
       </c>
-      <c r="AF17" s="69" t="str">
+      <c r="AC17" s="69" t="str">
         <f>'Tube K'!G15</f>
         <v>G8</v>
       </c>
-      <c r="AG17" s="70">
+      <c r="AD17" s="70">
         <f>'Tube K'!F15</f>
         <v>1.7048204300000016</v>
       </c>
-      <c r="AH17" s="71">
+      <c r="AE17" s="71">
         <v>2.2913582369298617</v>
       </c>
-      <c r="AI17" s="69" t="str">
+      <c r="AF17" s="69" t="str">
         <f>'Tube L'!G15</f>
         <v>A10</v>
       </c>
-      <c r="AJ17" s="70">
+      <c r="AG17" s="70">
         <f>'Tube L'!F15</f>
         <v>1.6995478629999994</v>
       </c>
-      <c r="AK17" s="71">
+      <c r="AH17" s="71">
         <v>0.8051991314108089</v>
       </c>
     </row>
-    <row r="18" spans="1:37">
+    <row r="18" spans="1:34">
       <c r="A18" s="53">
         <v>15</v>
       </c>
@@ -21164,128 +20770,117 @@
         <v>0.51888425693860729</v>
       </c>
       <c r="E18" s="69" t="str">
-        <f>'Tube B'!G16</f>
-        <v>E5</v>
-      </c>
-      <c r="F18" s="70">
-        <f>'Tube B'!F16</f>
-        <v>1.6904233170000005</v>
-      </c>
-      <c r="G18" s="71">
-        <v>0.7890059643202646</v>
-      </c>
-      <c r="H18" s="69" t="str">
         <f>'Tube C'!G16</f>
         <v>F8</v>
       </c>
-      <c r="I18" s="70">
+      <c r="F18" s="70">
         <f>'Tube C'!F16</f>
         <v>1.6948489949999992</v>
       </c>
-      <c r="J18" s="71">
+      <c r="G18" s="71">
         <v>0.75245650503892003</v>
       </c>
-      <c r="K18" s="69" t="str">
+      <c r="H18" s="69" t="str">
         <f>'Tube D'!G16</f>
         <v>A11</v>
       </c>
-      <c r="L18" s="70">
+      <c r="I18" s="70">
         <f>'Tube D'!F16</f>
         <v>1.6956139270000001</v>
       </c>
-      <c r="M18" s="71">
+      <c r="J18" s="71">
         <v>0.43922683858791961</v>
       </c>
-      <c r="N18" s="69" t="str">
+      <c r="K18" s="69" t="str">
         <f>'Tube E'!G16</f>
         <v>B2</v>
       </c>
-      <c r="O18" s="70">
+      <c r="L18" s="70">
         <f>'Tube E'!F16</f>
         <v>1.6938655110000003</v>
       </c>
-      <c r="P18" s="72">
+      <c r="M18" s="72">
         <v>0.62307613938433937</v>
       </c>
-      <c r="Q18" s="69" t="str">
+      <c r="N18" s="69" t="str">
         <f>'Tube F'!G16</f>
         <v>E5</v>
       </c>
-      <c r="R18" s="70">
+      <c r="O18" s="70">
         <f>'Tube F'!F16</f>
         <v>1.6928273890000014</v>
       </c>
-      <c r="S18" s="71">
+      <c r="P18" s="71">
         <v>0.54054706498184002</v>
       </c>
-      <c r="T18" s="69" t="str">
+      <c r="Q18" s="69" t="str">
         <f>'Tube G'!G16</f>
         <v>F8</v>
       </c>
-      <c r="U18" s="70">
+      <c r="R18" s="70">
         <f>'Tube G'!F16</f>
         <v>1.6928820270000013</v>
       </c>
-      <c r="V18" s="71">
+      <c r="S18" s="71">
         <v>0.43390423435743047</v>
       </c>
-      <c r="W18" s="69" t="str">
+      <c r="T18" s="69" t="str">
         <f>'Tube H'!G16</f>
         <v>A11</v>
       </c>
-      <c r="X18" s="70">
+      <c r="U18" s="70">
         <f>'Tube H'!F16</f>
         <v>1.6892759190000017</v>
       </c>
-      <c r="Y18" s="71">
+      <c r="V18" s="71">
         <v>0.65114046345125087</v>
       </c>
-      <c r="Z18" s="69" t="str">
+      <c r="W18" s="69" t="str">
         <f>'Tube I'!G16</f>
         <v>B2</v>
       </c>
-      <c r="AA18" s="70">
+      <c r="X18" s="70">
         <f>'Tube I'!F16</f>
         <v>1.6953134180000013</v>
       </c>
-      <c r="AB18" s="71">
+      <c r="Y18" s="71">
         <v>0.85296822757977353</v>
       </c>
-      <c r="AC18" s="69" t="str">
+      <c r="Z18" s="69" t="str">
         <f>'Tube J'!G16</f>
         <v>E5</v>
       </c>
-      <c r="AD18" s="67">
+      <c r="AA18" s="67">
         <f>'Tube J'!F16</f>
         <v>1.6956958840000027</v>
       </c>
-      <c r="AE18" s="71">
+      <c r="AB18" s="71">
         <v>0.60687746319432201</v>
       </c>
-      <c r="AF18" s="69" t="str">
+      <c r="AC18" s="69" t="str">
         <f>'Tube K'!G16</f>
         <v>F8</v>
       </c>
-      <c r="AG18" s="70">
+      <c r="AD18" s="70">
         <f>'Tube K'!F16</f>
         <v>1.7015421500000016</v>
       </c>
-      <c r="AH18" s="71">
+      <c r="AE18" s="71">
         <v>0.7010839212028479</v>
       </c>
-      <c r="AI18" s="69" t="str">
+      <c r="AF18" s="69" t="str">
         <f>'Tube L'!G16</f>
         <v>A11</v>
       </c>
-      <c r="AJ18" s="70">
+      <c r="AG18" s="70">
         <f>'Tube L'!F16</f>
         <v>1.694084063</v>
       </c>
-      <c r="AK18" s="71">
+      <c r="AH18" s="71">
         <v>0.51455653828211056</v>
       </c>
     </row>
-    <row r="19" spans="1:37">
+    <row r="19" spans="1:34">
       <c r="A19" s="53">
         <v>16</v>
       </c>
@@ -21301,128 +20896,117 @@
         <v>0.25290053176650956</v>
       </c>
       <c r="E19" s="69" t="str">
-        <f>'Tube B'!G17</f>
-        <v>F5</v>
-      </c>
-      <c r="F19" s="70">
-        <f>'Tube B'!F17</f>
-        <v>1.6849595170000011</v>
-      </c>
-      <c r="G19" s="71">
-        <v>0.41072221573534318</v>
-      </c>
-      <c r="H19" s="69" t="str">
         <f>'Tube C'!G17</f>
         <v>E8</v>
       </c>
-      <c r="I19" s="70">
+      <c r="F19" s="70">
         <f>'Tube C'!F17</f>
         <v>1.688292435000001</v>
       </c>
-      <c r="J19" s="71">
+      <c r="G19" s="71">
         <v>0.38042511808696489</v>
       </c>
-      <c r="K19" s="69" t="str">
+      <c r="H19" s="69" t="str">
         <f>'Tube D'!G17</f>
         <v>B11</v>
       </c>
-      <c r="L19" s="70">
+      <c r="I19" s="70">
         <f>'Tube D'!F17</f>
         <v>1.6890573670000002</v>
       </c>
-      <c r="M19" s="71">
+      <c r="J19" s="71">
         <v>0.25672476038217179</v>
       </c>
-      <c r="N19" s="69" t="str">
+      <c r="K19" s="69" t="str">
         <f>'Tube E'!G17</f>
         <v>A2</v>
       </c>
-      <c r="O19" s="70">
+      <c r="L19" s="70">
         <f>'Tube E'!F17</f>
         <v>1.6894944710000015</v>
       </c>
-      <c r="P19" s="72">
+      <c r="M19" s="72">
         <v>0.29798387737571147</v>
       </c>
-      <c r="Q19" s="69" t="str">
+      <c r="N19" s="69" t="str">
         <f>'Tube F'!G17</f>
         <v>F5</v>
       </c>
-      <c r="R19" s="70">
+      <c r="O19" s="70">
         <f>'Tube F'!F17</f>
         <v>1.6873635890000021</v>
       </c>
-      <c r="S19" s="71">
+      <c r="P19" s="71">
         <v>0.37091718753294373</v>
       </c>
-      <c r="T19" s="69" t="str">
+      <c r="Q19" s="69" t="str">
         <f>'Tube G'!G17</f>
         <v>E8</v>
       </c>
-      <c r="U19" s="70">
+      <c r="R19" s="70">
         <f>'Tube G'!F17</f>
         <v>1.687418227000002</v>
       </c>
-      <c r="V19" s="71">
+      <c r="S19" s="71">
         <v>0.21076648268744422</v>
       </c>
-      <c r="W19" s="69" t="str">
+      <c r="T19" s="69" t="str">
         <f>'Tube H'!G17</f>
         <v>B11</v>
       </c>
-      <c r="X19" s="70">
+      <c r="U19" s="70">
         <f>'Tube H'!F17</f>
         <v>1.684904879000003</v>
       </c>
-      <c r="Y19" s="71">
+      <c r="V19" s="71">
         <v>0.40251433795426378</v>
       </c>
-      <c r="Z19" s="69" t="str">
+      <c r="W19" s="69" t="str">
         <f>'Tube I'!G17</f>
         <v>A2</v>
       </c>
-      <c r="AA19" s="70">
+      <c r="X19" s="70">
         <f>'Tube I'!F17</f>
         <v>1.689849618000002</v>
       </c>
-      <c r="AB19" s="71">
+      <c r="Y19" s="71">
         <v>0.32259069581277194</v>
       </c>
-      <c r="AC19" s="69" t="str">
+      <c r="Z19" s="69" t="str">
         <f>'Tube J'!G17</f>
         <v>F5</v>
       </c>
-      <c r="AD19" s="67">
+      <c r="AA19" s="67">
         <f>'Tube J'!F17</f>
         <v>1.6891393240000028</v>
       </c>
-      <c r="AE19" s="71">
+      <c r="AB19" s="71">
         <v>0.37481950983713969</v>
       </c>
-      <c r="AF19" s="69" t="str">
+      <c r="AC19" s="69" t="str">
         <f>'Tube K'!G17</f>
         <v>E8</v>
       </c>
-      <c r="AG19" s="70">
+      <c r="AD19" s="70">
         <f>'Tube K'!F17</f>
         <v>1.6982638700000017</v>
       </c>
-      <c r="AH19" s="71">
+      <c r="AE19" s="71">
         <v>0.64512230500098777</v>
       </c>
-      <c r="AI19" s="69" t="str">
+      <c r="AF19" s="69" t="str">
         <f>'Tube L'!G17</f>
         <v>B11</v>
       </c>
-      <c r="AJ19" s="70">
+      <c r="AG19" s="70">
         <f>'Tube L'!F17</f>
         <v>1.6875275030000001</v>
       </c>
-      <c r="AK19" s="71">
+      <c r="AH19" s="71">
         <v>0.22687197378675297</v>
       </c>
     </row>
-    <row r="20" spans="1:37">
+    <row r="20" spans="1:34">
       <c r="A20" s="53">
         <v>17</v>
       </c>
@@ -21438,128 +21022,117 @@
         <v>0.14052285590916308</v>
       </c>
       <c r="E20" s="69" t="str">
-        <f>'Tube B'!G18</f>
-        <v>G5</v>
-      </c>
-      <c r="F20" s="70">
-        <f>'Tube B'!F18</f>
-        <v>1.6794957170000018</v>
-      </c>
-      <c r="G20" s="71">
-        <v>0.24443094114978939</v>
-      </c>
-      <c r="H20" s="69" t="str">
         <f>'Tube C'!G18</f>
         <v>D8</v>
       </c>
-      <c r="I20" s="70">
+      <c r="F20" s="70">
         <f>'Tube C'!F18</f>
         <v>1.6828286350000017</v>
       </c>
-      <c r="J20" s="71">
+      <c r="G20" s="71">
         <v>0.17902425180816425</v>
       </c>
-      <c r="K20" s="69" t="str">
+      <c r="H20" s="69" t="str">
         <f>'Tube D'!G18</f>
         <v>C11</v>
       </c>
-      <c r="L20" s="70">
+      <c r="I20" s="70">
         <f>'Tube D'!F18</f>
         <v>1.6835935670000008</v>
       </c>
-      <c r="M20" s="71">
+      <c r="J20" s="71">
         <v>0.17256238629094686</v>
       </c>
-      <c r="N20" s="69" t="str">
+      <c r="K20" s="69" t="str">
         <f>'Tube E'!G18</f>
         <v>A3</v>
       </c>
-      <c r="O20" s="70">
+      <c r="L20" s="70">
         <f>'Tube E'!F18</f>
         <v>1.6844131370000017</v>
       </c>
-      <c r="P20" s="71">
+      <c r="M20" s="71">
         <v>0.17266357115181977</v>
       </c>
-      <c r="Q20" s="69" t="str">
+      <c r="N20" s="69" t="str">
         <f>'Tube F'!G18</f>
         <v>G5</v>
       </c>
-      <c r="R20" s="70">
+      <c r="O20" s="70">
         <f>'Tube F'!F18</f>
         <v>1.6818997890000027</v>
       </c>
-      <c r="S20" s="71">
+      <c r="P20" s="71">
         <v>0.22116071259302597</v>
       </c>
-      <c r="T20" s="69" t="str">
+      <c r="Q20" s="69" t="str">
         <f>'Tube G'!G18</f>
         <v>D8</v>
       </c>
-      <c r="U20" s="70">
+      <c r="R20" s="70">
         <f>'Tube G'!F18</f>
         <v>1.6808616670000021</v>
       </c>
-      <c r="V20" s="71">
+      <c r="S20" s="71">
         <v>0.11837743339987694</v>
       </c>
-      <c r="W20" s="69" t="str">
+      <c r="T20" s="69" t="str">
         <f>'Tube H'!G18</f>
         <v>C11</v>
       </c>
-      <c r="X20" s="70">
+      <c r="U20" s="70">
         <f>'Tube H'!F18</f>
         <v>1.6772555590000007</v>
       </c>
-      <c r="Y20" s="71">
+      <c r="V20" s="71">
         <v>0.26819225056924229</v>
       </c>
-      <c r="Z20" s="69" t="str">
+      <c r="W20" s="69" t="str">
         <f>'Tube I'!G18</f>
         <v>A3</v>
       </c>
-      <c r="AA20" s="70">
+      <c r="X20" s="70">
         <f>'Tube I'!F18</f>
         <v>1.6843858180000026</v>
       </c>
-      <c r="AB20" s="71">
+      <c r="Y20" s="71">
         <v>0.17902482247638526</v>
       </c>
-      <c r="AC20" s="69" t="str">
+      <c r="Z20" s="69" t="str">
         <f>'Tube J'!G18</f>
         <v>G5</v>
       </c>
-      <c r="AD20" s="67">
+      <c r="AA20" s="67">
         <f>'Tube J'!F18</f>
         <v>1.6836755240000034</v>
       </c>
-      <c r="AE20" s="71">
+      <c r="AB20" s="71">
         <v>0.25209261655206794</v>
       </c>
-      <c r="AF20" s="69" t="str">
+      <c r="AC20" s="69" t="str">
         <f>'Tube K'!G18</f>
         <v>D8</v>
       </c>
-      <c r="AG20" s="70">
+      <c r="AD20" s="70">
         <f>'Tube K'!F18</f>
         <v>1.6962695829999994</v>
       </c>
-      <c r="AH20" s="71">
+      <c r="AE20" s="71">
         <v>0.44648874320033105</v>
       </c>
-      <c r="AI20" s="69" t="str">
+      <c r="AF20" s="69" t="str">
         <f>'Tube L'!G18</f>
         <v>C11</v>
       </c>
-      <c r="AJ20" s="70">
+      <c r="AG20" s="70">
         <f>'Tube L'!F18</f>
         <v>1.682063702999999</v>
       </c>
-      <c r="AK20" s="71">
+      <c r="AH20" s="71">
         <v>0.16419412642444972</v>
       </c>
     </row>
-    <row r="21" spans="1:37">
+    <row r="21" spans="1:34">
       <c r="A21" s="53">
         <v>18</v>
       </c>
@@ -21575,128 +21148,117 @@
         <v>8.5520945655257807E-2</v>
       </c>
       <c r="E21" s="69" t="str">
-        <f>'Tube B'!G19</f>
-        <v>H5</v>
-      </c>
-      <c r="F21" s="70">
-        <f>'Tube B'!F19</f>
-        <v>1.6720376300000002</v>
-      </c>
-      <c r="G21" s="71">
-        <v>0.15234579486883137</v>
-      </c>
-      <c r="H21" s="69" t="str">
         <f>'Tube C'!G19</f>
         <v>C8</v>
       </c>
-      <c r="I21" s="70">
+      <c r="F21" s="70">
         <f>'Tube C'!F19</f>
         <v>1.672993795</v>
       </c>
-      <c r="J21" s="71">
+      <c r="G21" s="71">
         <v>0.10101839192908142</v>
       </c>
-      <c r="K21" s="69" t="str">
+      <c r="H21" s="69" t="str">
         <f>'Tube D'!G19</f>
         <v>D11</v>
       </c>
-      <c r="L21" s="70">
+      <c r="I21" s="70">
         <f>'Tube D'!F19</f>
         <v>1.6759442470000003</v>
       </c>
-      <c r="M21" s="71">
+      <c r="J21" s="71">
         <v>0.12985195957708717</v>
       </c>
-      <c r="N21" s="69" t="str">
+      <c r="K21" s="69" t="str">
         <f>'Tube E'!G19</f>
         <v>B3</v>
       </c>
-      <c r="O21" s="70">
+      <c r="L21" s="70">
         <f>'Tube E'!F19</f>
         <v>1.677856577</v>
       </c>
-      <c r="P21" s="71">
+      <c r="M21" s="71">
         <v>0.11246005068713684</v>
       </c>
-      <c r="Q21" s="69" t="str">
+      <c r="N21" s="69" t="str">
         <f>'Tube F'!G19</f>
         <v>H5</v>
       </c>
-      <c r="R21" s="70">
+      <c r="O21" s="70">
         <f>'Tube F'!F19</f>
         <v>1.6742504690000004</v>
       </c>
-      <c r="S21" s="71">
+      <c r="P21" s="71">
         <v>0.10713016874213722</v>
       </c>
-      <c r="T21" s="69" t="str">
+      <c r="Q21" s="69" t="str">
         <f>'Tube G'!G19</f>
         <v>C8</v>
       </c>
-      <c r="U21" s="70">
+      <c r="R21" s="70">
         <f>'Tube G'!F19</f>
         <v>1.6732123470000015</v>
       </c>
-      <c r="V21" s="71">
+      <c r="S21" s="71">
         <v>9.9890859330387508E-2</v>
       </c>
-      <c r="W21" s="69" t="str">
+      <c r="T21" s="69" t="str">
         <f>'Tube H'!G19</f>
         <v>D11</v>
       </c>
-      <c r="X21" s="70">
+      <c r="U21" s="70">
         <f>'Tube H'!F19</f>
         <v>1.6741685120000014</v>
       </c>
-      <c r="Y21" s="71">
+      <c r="V21" s="71">
         <v>0.2478609807618222</v>
       </c>
-      <c r="Z21" s="69" t="str">
+      <c r="W21" s="69" t="str">
         <f>'Tube I'!G19</f>
         <v>B3</v>
       </c>
-      <c r="AA21" s="70">
+      <c r="X21" s="70">
         <f>'Tube I'!F19</f>
         <v>1.6756437380000015</v>
       </c>
-      <c r="AB21" s="71">
+      <c r="Y21" s="71">
         <v>0.10242852135369913</v>
       </c>
-      <c r="AC21" s="69" t="str">
+      <c r="Z21" s="69" t="str">
         <f>'Tube J'!G19</f>
         <v>H5</v>
       </c>
-      <c r="AD21" s="67">
+      <c r="AA21" s="67">
         <f>'Tube J'!F19</f>
         <v>1.6771189640000017</v>
       </c>
-      <c r="AE21" s="71">
+      <c r="AB21" s="71">
         <v>0.12556642168785836</v>
       </c>
-      <c r="AF21" s="69" t="str">
+      <c r="AC21" s="69" t="str">
         <f>'Tube K'!G19</f>
         <v>C8</v>
       </c>
-      <c r="AG21" s="70">
+      <c r="AD21" s="70">
         <f>'Tube K'!F19</f>
         <v>1.6918985430000006</v>
       </c>
-      <c r="AH21" s="71">
+      <c r="AE21" s="71">
         <v>0.34980348918375576</v>
       </c>
-      <c r="AI21" s="69" t="str">
+      <c r="AF21" s="69" t="str">
         <f>'Tube L'!G19</f>
         <v>D11</v>
       </c>
-      <c r="AJ21" s="70">
+      <c r="AG21" s="70">
         <f>'Tube L'!F19</f>
         <v>1.675507142999999</v>
       </c>
-      <c r="AK21" s="71">
+      <c r="AH21" s="71">
         <v>0.15978193945384525</v>
       </c>
     </row>
-    <row r="22" spans="1:37">
+    <row r="22" spans="1:34">
       <c r="A22" s="53">
         <v>19</v>
       </c>
@@ -21712,128 +21274,117 @@
         <v>8.8342634780534016E-2</v>
       </c>
       <c r="E22" s="69" t="str">
-        <f>'Tube B'!G20</f>
-        <v>H6</v>
-      </c>
-      <c r="F22" s="70">
-        <f>'Tube B'!F20</f>
-        <v>1.6545534700000015</v>
-      </c>
-      <c r="G22" s="71">
-        <v>0.19406020725896647</v>
-      </c>
-      <c r="H22" s="69" t="str">
         <f>'Tube C'!G20</f>
         <v>B8</v>
       </c>
-      <c r="I22" s="70">
+      <c r="F22" s="70">
         <f>'Tube C'!F20</f>
         <v>1.6423965150000015</v>
       </c>
-      <c r="J22" s="71">
+      <c r="G22" s="71">
         <v>0.115840320254741</v>
       </c>
-      <c r="K22" s="69" t="str">
+      <c r="H22" s="69" t="str">
         <f>'Tube D'!G20</f>
         <v>E11</v>
       </c>
-      <c r="L22" s="70">
+      <c r="I22" s="70">
         <f>'Tube D'!F20</f>
         <v>1.6564658000000012</v>
       </c>
-      <c r="M22" s="71">
+      <c r="J22" s="71">
         <v>0.13913242312020491</v>
       </c>
-      <c r="N22" s="69" t="str">
+      <c r="K22" s="69" t="str">
         <f>'Tube E'!G20</f>
         <v>C3</v>
       </c>
-      <c r="O22" s="70">
+      <c r="L22" s="70">
         <f>'Tube E'!F20</f>
         <v>1.6603724170000014</v>
       </c>
-      <c r="P22" s="71">
+      <c r="M22" s="71">
         <v>0.12226305355454326</v>
       </c>
-      <c r="Q22" s="69" t="str">
+      <c r="N22" s="69" t="str">
         <f>'Tube F'!G20</f>
         <v>H6</v>
       </c>
-      <c r="R22" s="70">
+      <c r="O22" s="70">
         <f>'Tube F'!F20</f>
         <v>1.656766309</v>
       </c>
-      <c r="S22" s="71">
+      <c r="P22" s="71">
         <v>0.12272209072564515</v>
       </c>
-      <c r="T22" s="69" t="str">
+      <c r="Q22" s="69" t="str">
         <f>'Tube G'!G20</f>
         <v>B8</v>
       </c>
-      <c r="U22" s="70">
+      <c r="R22" s="70">
         <f>'Tube G'!F20</f>
         <v>1.6546354270000005</v>
       </c>
-      <c r="V22" s="71">
+      <c r="S22" s="71">
         <v>0.12251856366886488</v>
       </c>
-      <c r="W22" s="69" t="str">
+      <c r="T22" s="69" t="str">
         <f>'Tube H'!G20</f>
         <v>E11</v>
       </c>
-      <c r="X22" s="70">
+      <c r="U22" s="70">
         <f>'Tube H'!F20</f>
         <v>1.6554003590000015</v>
       </c>
-      <c r="Y22" s="71">
+      <c r="V22" s="71">
         <v>0.28253572405789473</v>
       </c>
-      <c r="Z22" s="69" t="str">
+      <c r="W22" s="69" t="str">
         <f>'Tube I'!G20</f>
         <v>C3</v>
       </c>
-      <c r="AA22" s="70">
+      <c r="X22" s="70">
         <f>'Tube I'!F20</f>
         <v>1.6559740580000017</v>
       </c>
-      <c r="AB22" s="71">
+      <c r="Y22" s="71">
         <v>0.1066360862123726</v>
       </c>
-      <c r="AC22" s="69" t="str">
+      <c r="Z22" s="69" t="str">
         <f>'Tube J'!G20</f>
         <v>H6</v>
       </c>
-      <c r="AD22" s="67">
+      <c r="AA22" s="67">
         <f>'Tube J'!F20</f>
         <v>1.6585420440000007</v>
       </c>
-      <c r="AE22" s="71">
+      <c r="AB22" s="71">
         <v>0.15041477631867881</v>
       </c>
-      <c r="AF22" s="69" t="str">
+      <c r="AC22" s="69" t="str">
         <f>'Tube K'!G20</f>
         <v>B8</v>
       </c>
-      <c r="AG22" s="70">
+      <c r="AD22" s="70">
         <f>'Tube K'!F20</f>
         <v>1.6875275030000001</v>
       </c>
-      <c r="AH22" s="71">
+      <c r="AE22" s="71">
         <v>0.30825852788441682</v>
       </c>
-      <c r="AI22" s="69" t="str">
+      <c r="AF22" s="69" t="str">
         <f>'Tube L'!G20</f>
         <v>E11</v>
       </c>
-      <c r="AJ22" s="70">
+      <c r="AG22" s="70">
         <f>'Tube L'!F20</f>
         <v>1.6547447029999987</v>
       </c>
-      <c r="AK22" s="71">
+      <c r="AH22" s="71">
         <v>0.1779201677755434</v>
       </c>
     </row>
-    <row r="23" spans="1:37">
+    <row r="23" spans="1:34">
       <c r="A23" s="53">
         <v>20</v>
       </c>
@@ -21849,128 +21400,117 @@
         <v>7.7619546865808367E-2</v>
       </c>
       <c r="E23" s="69" t="str">
-        <f>'Tube B'!G21</f>
-        <v>G6</v>
-      </c>
-      <c r="F23" s="70">
-        <f>'Tube B'!F21</f>
-        <v>1.5802457899999993</v>
-      </c>
-      <c r="G23" s="71">
-        <v>0.2039948940225271</v>
-      </c>
-      <c r="H23" s="69" t="str">
         <f>'Tube C'!G21</f>
         <v>A8</v>
       </c>
-      <c r="I23" s="70">
+      <c r="F23" s="70">
         <f>'Tube C'!F21</f>
         <v>1.5486103880000019</v>
       </c>
-      <c r="J23" s="71">
+      <c r="G23" s="71">
         <v>7.1169290339055308E-2</v>
       </c>
-      <c r="K23" s="69" t="str">
+      <c r="H23" s="69" t="str">
         <f>'Tube D'!G21</f>
         <v>F11</v>
       </c>
-      <c r="L23" s="70">
+      <c r="I23" s="70">
         <f>'Tube D'!F21</f>
         <v>1.5734160400000015</v>
       </c>
-      <c r="M23" s="71">
+      <c r="J23" s="71">
         <v>0.15436066598778367</v>
       </c>
-      <c r="N23" s="69" t="str">
+      <c r="K23" s="69" t="str">
         <f>'Tube E'!G21</f>
         <v>D3</v>
       </c>
-      <c r="O23" s="70">
+      <c r="L23" s="70">
         <f>'Tube E'!F21</f>
         <v>1.5775138900000023</v>
       </c>
-      <c r="P23" s="71">
+      <c r="M23" s="71">
         <v>9.5843778828487269E-2</v>
       </c>
-      <c r="Q23" s="69" t="str">
+      <c r="N23" s="69" t="str">
         <f>'Tube F'!G21</f>
         <v>G6</v>
       </c>
-      <c r="R23" s="70">
+      <c r="O23" s="70">
         <f>'Tube F'!F21</f>
         <v>1.5682527490000009</v>
       </c>
-      <c r="S23" s="71">
+      <c r="P23" s="71">
         <v>0.11439628643517441</v>
       </c>
-      <c r="T23" s="69" t="str">
+      <c r="Q23" s="69" t="str">
         <f>'Tube G'!G21</f>
         <v>A8</v>
       </c>
-      <c r="U23" s="70">
+      <c r="R23" s="70">
         <f>'Tube G'!F21</f>
         <v>1.5715856670000026</v>
       </c>
-      <c r="V23" s="71">
+      <c r="S23" s="71">
         <v>9.1260733297342814E-2</v>
       </c>
-      <c r="W23" s="69" t="str">
+      <c r="T23" s="69" t="str">
         <f>'Tube H'!G21</f>
         <v>F11</v>
       </c>
-      <c r="X23" s="70">
+      <c r="U23" s="70">
         <f>'Tube H'!F21</f>
         <v>1.5692635520000007</v>
       </c>
-      <c r="Y23" s="71">
+      <c r="V23" s="71">
         <v>0.20943202236135797</v>
       </c>
-      <c r="Z23" s="69" t="str">
+      <c r="W23" s="69" t="str">
         <f>'Tube I'!G21</f>
         <v>D3</v>
       </c>
-      <c r="AA23" s="70">
+      <c r="X23" s="70">
         <f>'Tube I'!F21</f>
         <v>1.5816663780000013</v>
       </c>
-      <c r="AB23" s="71">
+      <c r="Y23" s="71">
         <v>7.1584746389025358E-2</v>
       </c>
-      <c r="AC23" s="69" t="str">
+      <c r="Z23" s="69" t="str">
         <f>'Tube J'!G21</f>
         <v>G6</v>
       </c>
-      <c r="AD23" s="67">
+      <c r="AA23" s="67">
         <f>'Tube J'!F21</f>
         <v>1.5809560840000021</v>
       </c>
-      <c r="AE23" s="71">
+      <c r="AB23" s="71">
         <v>0.12011706036238397</v>
       </c>
-      <c r="AF23" s="69" t="str">
+      <c r="AC23" s="69" t="str">
         <f>'Tube K'!G21</f>
         <v>A8</v>
       </c>
-      <c r="AG23" s="70">
+      <c r="AD23" s="70">
         <f>'Tube K'!F21</f>
         <v>1.6798781829999996</v>
       </c>
-      <c r="AH23" s="71">
+      <c r="AE23" s="71">
         <v>0.16204553855453274</v>
       </c>
-      <c r="AI23" s="69" t="str">
+      <c r="AF23" s="69" t="str">
         <f>'Tube L'!G21</f>
         <v>F11</v>
       </c>
-      <c r="AJ23" s="70">
+      <c r="AG23" s="70">
         <f>'Tube L'!F21</f>
         <v>1.5695094229999995</v>
       </c>
-      <c r="AK23" s="71">
+      <c r="AH23" s="71">
         <v>0.1252117941444422</v>
       </c>
     </row>
-    <row r="24" spans="1:37">
+    <row r="24" spans="1:34">
       <c r="A24" s="53">
         <v>21</v>
       </c>
@@ -21986,128 +21526,117 @@
         <v>4.7666242246481638E-2</v>
       </c>
       <c r="E24" s="66" t="str">
-        <f>'Tube B'!G22</f>
-        <v>F6</v>
-      </c>
-      <c r="F24" s="67">
-        <f>'Tube B'!F22</f>
-        <v>1.4097752299999993</v>
-      </c>
-      <c r="G24" s="68">
-        <v>0.10698635401678373</v>
-      </c>
-      <c r="H24" s="66" t="str">
         <f>'Tube C'!G22</f>
         <v>A9</v>
       </c>
-      <c r="I24" s="67">
+      <c r="F24" s="67">
         <f>'Tube C'!F22</f>
         <v>1.3781398280000001</v>
       </c>
-      <c r="J24" s="68">
+      <c r="G24" s="68">
         <v>5.2009446054575414E-2</v>
       </c>
-      <c r="K24" s="66" t="str">
+      <c r="H24" s="66" t="str">
         <f>'Tube D'!G22</f>
         <v>G11</v>
       </c>
-      <c r="L24" s="67">
+      <c r="I24" s="67">
         <f>'Tube D'!F22</f>
         <v>1.3931106400000015</v>
       </c>
-      <c r="M24" s="68">
+      <c r="J24" s="68">
         <v>7.359356271111446E-2</v>
       </c>
-      <c r="N24" s="66" t="str">
+      <c r="K24" s="66" t="str">
         <f>'Tube E'!G22</f>
         <v>E3</v>
       </c>
-      <c r="O24" s="67">
+      <c r="L24" s="67">
         <f>'Tube E'!F22</f>
         <v>1.3819098500000013</v>
       </c>
-      <c r="P24" s="68">
+      <c r="M24" s="68">
         <v>5.045006740153396E-2</v>
       </c>
-      <c r="Q24" s="66" t="str">
+      <c r="N24" s="66" t="str">
         <f>'Tube F'!G22</f>
         <v>F6</v>
       </c>
-      <c r="R24" s="67">
+      <c r="O24" s="67">
         <f>'Tube F'!F22</f>
         <v>1.3726487090000017</v>
       </c>
-      <c r="S24" s="68">
+      <c r="P24" s="68">
         <v>8.2485776248047343E-2</v>
       </c>
-      <c r="T24" s="66" t="str">
+      <c r="Q24" s="66" t="str">
         <f>'Tube G'!G22</f>
         <v>A9</v>
       </c>
-      <c r="U24" s="67">
+      <c r="R24" s="67">
         <f>'Tube G'!F22</f>
         <v>1.3781671470000028</v>
       </c>
-      <c r="V24" s="68">
+      <c r="S24" s="68">
         <v>4.6563646807678973E-2</v>
       </c>
-      <c r="W24" s="66" t="str">
+      <c r="T24" s="66" t="str">
         <f>'Tube H'!G22</f>
         <v>G11</v>
       </c>
-      <c r="X24" s="67">
+      <c r="U24" s="67">
         <f>'Tube H'!F22</f>
         <v>1.3747522720000038</v>
       </c>
-      <c r="Y24" s="68">
+      <c r="V24" s="68">
         <v>0.12148485159593568</v>
       </c>
-      <c r="Z24" s="66" t="str">
+      <c r="W24" s="66" t="str">
         <f>'Tube I'!G22</f>
         <v>E3</v>
       </c>
-      <c r="AA24" s="67">
+      <c r="X24" s="67">
         <f>'Tube I'!F22</f>
         <v>1.4172333170000009</v>
       </c>
-      <c r="AB24" s="68">
+      <c r="Y24" s="68">
         <v>3.5687336694328865E-2</v>
       </c>
-      <c r="AC24" s="66" t="str">
+      <c r="Z24" s="66" t="str">
         <f>'Tube J'!G22</f>
         <v>F6</v>
       </c>
-      <c r="AD24" s="67">
+      <c r="AA24" s="67">
         <f>'Tube J'!F22</f>
         <v>1.3995579240000033</v>
       </c>
-      <c r="AE24" s="68">
+      <c r="AB24" s="68">
         <v>8.028124543393772E-2</v>
       </c>
-      <c r="AF24" s="66" t="str">
+      <c r="AC24" s="66" t="str">
         <f>'Tube K'!G22</f>
         <v>A9</v>
       </c>
-      <c r="AG24" s="67">
+      <c r="AD24" s="67">
         <f>'Tube K'!F22</f>
         <v>1.6700433429999997</v>
       </c>
-      <c r="AH24" s="68">
+      <c r="AE24" s="68">
         <v>0.22180100544709402</v>
       </c>
-      <c r="AI24" s="66" t="str">
+      <c r="AF24" s="66" t="str">
         <f>'Tube L'!G22</f>
         <v>G11</v>
       </c>
-      <c r="AJ24" s="67">
+      <c r="AG24" s="67">
         <f>'Tube L'!F22</f>
         <v>1.3749981430000009</v>
       </c>
-      <c r="AK24" s="68">
+      <c r="AH24" s="68">
         <v>3.9714698846354854E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:37" ht="13" thickBot="1">
+    <row r="25" spans="1:34" ht="12.9" thickBot="1">
       <c r="A25" s="53">
         <v>22</v>
       </c>
@@ -22123,131 +21652,120 @@
         <v>-5.2864887571311371E-3</v>
       </c>
       <c r="E25" s="75" t="str">
-        <f>'Tube B'!G23</f>
-        <v>E6</v>
-      </c>
-      <c r="F25" s="76">
-        <f>'Tube B'!F23</f>
-        <v>1.1770173500000016</v>
-      </c>
-      <c r="G25" s="77">
-        <v>9.1137667044441303E-2</v>
-      </c>
-      <c r="H25" s="75" t="str">
         <f>'Tube C'!G23</f>
         <v>B9</v>
       </c>
-      <c r="I25" s="76">
+      <c r="F25" s="76">
         <f>'Tube C'!F23</f>
         <v>1.1869068279999997</v>
       </c>
-      <c r="J25" s="77">
+      <c r="G25" s="77">
         <v>1.3860073440194321E-2</v>
       </c>
-      <c r="K25" s="75" t="str">
+      <c r="H25" s="75" t="str">
         <f>'Tube D'!G23</f>
         <v>H11</v>
       </c>
-      <c r="L25" s="76">
+      <c r="I25" s="76">
         <f>'Tube D'!F23</f>
         <v>1.1614455200000009</v>
       </c>
-      <c r="M25" s="77">
+      <c r="J25" s="77">
         <v>3.0403348734495697E-2</v>
       </c>
-      <c r="N25" s="75" t="str">
+      <c r="K25" s="75" t="str">
         <f>'Tube E'!G23</f>
         <v>F3</v>
       </c>
-      <c r="O25" s="76">
+      <c r="L25" s="76">
         <f>'Tube E'!F23</f>
         <v>1.1830275300000022</v>
       </c>
-      <c r="P25" s="77">
+      <c r="M25" s="77">
         <v>2.5672684601181942E-2</v>
       </c>
-      <c r="Q25" s="75" t="str">
+      <c r="N25" s="75" t="str">
         <f>'Tube F'!G23</f>
         <v>E6</v>
       </c>
-      <c r="R25" s="76">
+      <c r="O25" s="76">
         <f>'Tube F'!F23</f>
         <v>1.1728648620000008</v>
       </c>
-      <c r="S25" s="77">
+      <c r="P25" s="77">
         <v>2.2810059732261103E-2</v>
       </c>
-      <c r="T25" s="66" t="str">
+      <c r="Q25" s="66" t="str">
         <f>'Tube G'!G23</f>
         <v>B9</v>
       </c>
-      <c r="U25" s="76">
+      <c r="R25" s="76">
         <f>'Tube G'!F23</f>
         <v>1.1672644670000007</v>
       </c>
-      <c r="V25" s="77">
+      <c r="S25" s="77">
         <v>2.7469616129968354E-2</v>
       </c>
-      <c r="W25" s="75" t="str">
+      <c r="T25" s="75" t="str">
         <f>'Tube H'!G23</f>
         <v>H11</v>
       </c>
-      <c r="X25" s="76">
+      <c r="U25" s="76">
         <f>'Tube H'!F23</f>
         <v>1.1682206320000006</v>
       </c>
-      <c r="Y25" s="77">
+      <c r="V25" s="77">
         <v>5.9500351638751399E-2</v>
       </c>
-      <c r="Z25" s="66" t="str">
+      <c r="W25" s="66" t="str">
         <f>'Tube I'!G23</f>
         <v>F3</v>
       </c>
-      <c r="AA25" s="67">
+      <c r="X25" s="67">
         <f>'Tube I'!F23</f>
         <v>1.2079424580000016</v>
       </c>
-      <c r="AB25" s="85">
+      <c r="Y25" s="85">
         <v>-3.4575377012477353E-3</v>
       </c>
-      <c r="AC25" s="86" t="str">
+      <c r="Z25" s="86" t="str">
         <f>'Tube J'!G23</f>
         <v>E6</v>
       </c>
-      <c r="AD25" s="67">
+      <c r="AA25" s="67">
         <f>'Tube J'!F23</f>
         <v>1.1722638440000015</v>
       </c>
-      <c r="AE25" s="68">
+      <c r="AB25" s="68">
         <v>1.8353752210502346E-2</v>
       </c>
-      <c r="AF25" s="86" t="str">
+      <c r="AC25" s="86" t="str">
         <f>'Tube K'!G23</f>
         <v>B9</v>
       </c>
-      <c r="AG25" s="87">
+      <c r="AD25" s="87">
         <f>'Tube K'!F23</f>
         <v>1.6296112229999995</v>
       </c>
-      <c r="AH25" s="68">
+      <c r="AE25" s="68">
         <v>0.21023478072423271</v>
       </c>
-      <c r="AI25" s="66" t="str">
+      <c r="AF25" s="66" t="str">
         <f>'Tube L'!G23</f>
         <v>H11</v>
       </c>
-      <c r="AJ25" s="87">
+      <c r="AG25" s="87">
         <f>'Tube L'!F23</f>
         <v>1.1673737429999989</v>
       </c>
-      <c r="AK25" s="68">
+      <c r="AH25" s="68">
         <v>3.6929787124014103E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:37" ht="13" thickTop="1">
+    <row r="26" spans="1:34" ht="12.9" thickTop="1">
       <c r="B26" s="70"/>
       <c r="C26" s="78" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D26" s="79">
         <f>SUM(D5:D25)*40/TubeLoading!J29*100</f>
@@ -22255,94 +21773,86 @@
       </c>
       <c r="E26" s="70"/>
       <c r="F26" s="78" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G26" s="79">
-        <f>SUM(G5:G25)*40/TubeLoading!J30*100</f>
-        <v>73.593679424018404</v>
-      </c>
-      <c r="H26" s="70"/>
+        <f>SUM(G5:G25)*40/TubeLoading!J31*100</f>
+        <v>41.816098179342355</v>
+      </c>
+      <c r="H26" s="80"/>
       <c r="I26" s="78" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J26" s="79">
-        <f>SUM(J5:J25)*40/TubeLoading!J31*100</f>
-        <v>41.816098179342355</v>
-      </c>
-      <c r="K26" s="80"/>
+        <f>SUM(J5:J25)*40/TubeLoading!J32*100</f>
+        <v>34.707307323797586</v>
+      </c>
+      <c r="K26" s="70"/>
       <c r="L26" s="78" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M26" s="79">
-        <f>SUM(M5:M25)*40/TubeLoading!J32*100</f>
-        <v>34.707307323797586</v>
+        <f>SUM(M5:M25)*40/TubeLoading!J33*100</f>
+        <v>37.385409201893339</v>
       </c>
       <c r="N26" s="70"/>
       <c r="O26" s="78" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P26" s="79">
-        <f>SUM(P5:P25)*40/TubeLoading!J33*100</f>
-        <v>37.385409201893339</v>
-      </c>
-      <c r="Q26" s="70"/>
+        <f>SUM(P5:P25)*40/TubeLoading!J34*100</f>
+        <v>36.917147874094979</v>
+      </c>
+      <c r="Q26" s="84"/>
       <c r="R26" s="78" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="S26" s="79">
-        <f>SUM(S5:S25)*40/TubeLoading!J34*100</f>
-        <v>36.917147874094979</v>
-      </c>
-      <c r="T26" s="84"/>
+        <f>SUM(S5:S25)*40/TubeLoading!J35*100</f>
+        <v>33.254518276339276</v>
+      </c>
+      <c r="T26" s="70"/>
       <c r="U26" s="78" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="V26" s="79">
-        <f>SUM(V5:V25)*40/TubeLoading!J35*100</f>
-        <v>33.254518276339276</v>
-      </c>
-      <c r="W26" s="70"/>
-      <c r="X26" s="78" t="s">
-        <v>190</v>
+        <f>SUM(V5:V25)*40/TubeLoading!J36*100</f>
+        <v>49.389282824600336</v>
+      </c>
+      <c r="W26" s="88"/>
+      <c r="X26" s="89" t="s">
+        <v>189</v>
       </c>
       <c r="Y26" s="79">
-        <f>SUM(Y5:Y25)*40/TubeLoading!J36*100</f>
-        <v>49.389282824600336</v>
-      </c>
-      <c r="Z26" s="88"/>
+        <f>SUM(Y5:Y25)*40/TubeLoading!J37*100</f>
+        <v>35.562752600350471</v>
+      </c>
+      <c r="Z26" s="70"/>
       <c r="AA26" s="89" t="s">
-        <v>190</v>
-      </c>
-      <c r="AB26" s="79">
-        <f>SUM(AB5:AB25)*40/TubeLoading!J37*100</f>
-        <v>35.562752600350471</v>
+        <v>189</v>
+      </c>
+      <c r="AB26" s="90">
+        <f>SUM(AB5:AB25)*40/TubeLoading!J38*100</f>
+        <v>35.291218910496688</v>
       </c>
       <c r="AC26" s="70"/>
-      <c r="AD26" s="89" t="s">
-        <v>190</v>
+      <c r="AD26" s="78" t="s">
+        <v>189</v>
       </c>
       <c r="AE26" s="90">
-        <f>SUM(AE5:AE25)*40/TubeLoading!J38*100</f>
-        <v>35.291218910496688</v>
-      </c>
-      <c r="AF26" s="70"/>
+        <f>SUM(AE5:AE25)*40/TubeLoading!J39*100</f>
+        <v>51.80878929951578</v>
+      </c>
+      <c r="AF26" s="91"/>
       <c r="AG26" s="78" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AH26" s="90">
-        <f>SUM(AH5:AH25)*40/TubeLoading!J39*100</f>
-        <v>51.80878929951578</v>
-      </c>
-      <c r="AI26" s="91"/>
-      <c r="AJ26" s="78" t="s">
-        <v>190</v>
-      </c>
-      <c r="AK26" s="90">
-        <f>SUM(AK5:AK25)*40/TubeLoading!J40*100</f>
+        <f>SUM(AH5:AH25)*40/TubeLoading!J40*100</f>
         <v>30.81260990708639</v>
       </c>
     </row>
-    <row r="27" spans="1:37">
+    <row r="27" spans="1:34">
       <c r="B27" s="70"/>
       <c r="C27" s="70"/>
       <c r="D27" s="70"/>
@@ -22352,11 +21862,8 @@
       <c r="H27" s="70"/>
       <c r="I27" s="70"/>
       <c r="J27" s="70"/>
-      <c r="K27" s="70"/>
-      <c r="L27" s="70"/>
-      <c r="M27" s="70"/>
-    </row>
-    <row r="28" spans="1:37">
+    </row>
+    <row r="28" spans="1:34">
       <c r="B28" s="70"/>
       <c r="C28" s="70"/>
       <c r="D28" s="70"/>
@@ -22366,20 +21873,17 @@
       <c r="H28" s="70"/>
       <c r="I28" s="70"/>
       <c r="J28" s="70"/>
-      <c r="K28" s="70"/>
-      <c r="L28" s="70"/>
-      <c r="M28" s="70"/>
-    </row>
-    <row r="29" spans="1:37">
+    </row>
+    <row r="29" spans="1:34">
       <c r="A29" s="59"/>
     </row>
-    <row r="30" spans="1:37">
+    <row r="30" spans="1:34">
       <c r="A30" s="59"/>
     </row>
-    <row r="31" spans="1:37">
+    <row r="31" spans="1:34">
       <c r="A31" s="59"/>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:10">
       <c r="B55" s="70"/>
       <c r="C55" s="70"/>
       <c r="D55" s="70"/>
@@ -22389,20 +21893,17 @@
       <c r="H55" s="70"/>
       <c r="I55" s="70"/>
       <c r="J55" s="70"/>
-      <c r="K55" s="70"/>
-      <c r="L55" s="70"/>
-      <c r="M55" s="70"/>
-    </row>
-    <row r="56" spans="1:13">
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="59"/>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:10">
       <c r="A57" s="59"/>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:10">
       <c r="A58" s="59"/>
     </row>
-    <row r="82" spans="1:13">
+    <row r="82" spans="1:10">
       <c r="B82" s="70"/>
       <c r="C82" s="70"/>
       <c r="D82" s="70"/>
@@ -22412,11 +21913,8 @@
       <c r="H82" s="70"/>
       <c r="I82" s="70"/>
       <c r="J82" s="70"/>
-      <c r="K82" s="70"/>
-      <c r="L82" s="70"/>
-      <c r="M82" s="70"/>
-    </row>
-    <row r="83" spans="1:13">
+    </row>
+    <row r="83" spans="1:10">
       <c r="B83" s="70"/>
       <c r="C83" s="70"/>
       <c r="D83" s="70"/>
@@ -22426,33 +21924,29 @@
       <c r="H83" s="70"/>
       <c r="I83" s="70"/>
       <c r="J83" s="70"/>
-      <c r="K83" s="70"/>
-      <c r="L83" s="70"/>
-      <c r="M83" s="70"/>
-    </row>
-    <row r="84" spans="1:13">
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="59"/>
     </row>
-    <row r="85" spans="1:13">
+    <row r="85" spans="1:10">
       <c r="A85" s="59"/>
     </row>
-    <row r="86" spans="1:13">
+    <row r="86" spans="1:10">
       <c r="A86" s="59"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="11">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="Z2:AB2"/>
     <mergeCell ref="AC2:AE2"/>
     <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="AI2:AK2"/>
+    <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="Q2:S2"/>
     <mergeCell ref="T2:V2"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="Z2:AB2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -22470,19 +21964,19 @@
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="12.45"/>
   <cols>
-    <col min="1" max="1" width="17.90625" customWidth="1"/>
-    <col min="2" max="2" width="8.90625" customWidth="1"/>
-    <col min="3" max="3" width="87.08984375" customWidth="1"/>
+    <col min="1" max="1" width="17.921875" customWidth="1"/>
+    <col min="2" max="2" width="8.921875" customWidth="1"/>
+    <col min="3" max="3" width="87.07421875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="50">
+    <row r="2" spans="1:6" ht="49.75">
       <c r="E2" s="2" t="s">
         <v>32</v>
       </c>
@@ -22490,7 +21984,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16">
+    <row r="3" spans="1:6" ht="15.9">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -22507,7 +22001,7 @@
         <v>2040000000</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16">
+    <row r="4" spans="1:6" ht="15.9">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -22524,7 +22018,7 @@
         <v>1550000000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.5">
+    <row r="5" spans="1:6" ht="15.45">
       <c r="A5" s="3" t="s">
         <v>22</v>
       </c>
@@ -22542,7 +22036,7 @@
         <v>1330000000</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.5">
+    <row r="6" spans="1:6" ht="15.45">
       <c r="A6" s="3" t="s">
         <v>23</v>
       </c>
@@ -22559,7 +22053,7 @@
         <v>1220000000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.5">
+    <row r="7" spans="1:6" ht="15.45">
       <c r="A7" s="3" t="s">
         <v>24</v>
       </c>
@@ -22577,7 +22071,7 @@
         <v>1170000000</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.5">
+    <row r="8" spans="1:6" ht="15.45">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
@@ -22594,7 +22088,7 @@
         <v>1140000000</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.5">
+    <row r="9" spans="1:6" ht="15.45">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
@@ -22612,7 +22106,7 @@
         <v>1120000000</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="16">
+    <row r="10" spans="1:6" ht="15.9">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
@@ -22630,7 +22124,7 @@
         <v>1120000000</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.5">
+    <row r="11" spans="1:6" ht="15.45">
       <c r="A11" s="3" t="s">
         <v>37</v>
       </c>
@@ -22641,7 +22135,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="16">
+    <row r="12" spans="1:6" ht="15.9">
       <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
@@ -22652,7 +22146,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="16">
+    <row r="13" spans="1:6" ht="15.9">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
@@ -22663,7 +22157,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="16">
+    <row r="14" spans="1:6" ht="15.9">
       <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
@@ -22674,7 +22168,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="16">
+    <row r="15" spans="1:6" ht="15.9">
       <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
@@ -22686,7 +22180,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="16">
+    <row r="16" spans="1:6" ht="15.9">
       <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
@@ -22697,11 +22191,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.5">
+    <row r="17" spans="1:4" ht="15.45">
       <c r="A17" s="3"/>
       <c r="C17" s="4"/>
     </row>
-    <row r="18" spans="1:4" ht="15.5">
+    <row r="18" spans="1:4" ht="15.45">
       <c r="C18" s="11" t="s">
         <v>38</v>
       </c>
@@ -22710,7 +22204,7 @@
         <v>19.166399999999982</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.5">
+    <row r="19" spans="1:4" ht="15.45">
       <c r="C19" s="11" t="s">
         <v>2</v>
       </c>
@@ -22719,7 +22213,7 @@
         <v>2.1295999999999977</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.5">
+    <row r="20" spans="1:4" ht="15.45">
       <c r="C20" s="11" t="s">
         <v>3</v>
       </c>
@@ -22728,126 +22222,126 @@
         <v>108.31629022640612</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.5">
+    <row r="22" spans="1:4" ht="15.45">
       <c r="C22" s="11"/>
       <c r="D22" s="12"/>
     </row>
-    <row r="23" spans="1:4" ht="15.5">
+    <row r="23" spans="1:4" ht="15.45">
       <c r="C23" s="11"/>
       <c r="D23" s="12"/>
     </row>
-    <row r="27" spans="1:4" ht="13">
+    <row r="27" spans="1:4">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:4" ht="15.5">
+    <row r="28" spans="1:4" ht="15.45">
       <c r="C28" s="4"/>
     </row>
-    <row r="29" spans="1:4" ht="15.5">
+    <row r="29" spans="1:4" ht="15.45">
       <c r="A29" s="3"/>
       <c r="C29" s="4"/>
     </row>
-    <row r="30" spans="1:4" ht="15.5">
+    <row r="30" spans="1:4" ht="15.45">
       <c r="A30" s="3"/>
       <c r="C30" s="4"/>
     </row>
-    <row r="31" spans="1:4" ht="15.5">
+    <row r="31" spans="1:4" ht="15.45">
       <c r="A31" s="3"/>
       <c r="B31" s="7"/>
       <c r="C31" s="4"/>
     </row>
-    <row r="32" spans="1:4" ht="15.5">
+    <row r="32" spans="1:4" ht="15.45">
       <c r="A32" s="3"/>
       <c r="C32" s="4"/>
     </row>
-    <row r="33" spans="1:12" ht="15.5">
+    <row r="33" spans="1:12" ht="15.45">
       <c r="A33" s="3"/>
       <c r="C33" s="4"/>
     </row>
-    <row r="34" spans="1:12" ht="15.5">
+    <row r="34" spans="1:12" ht="15.45">
       <c r="A34" s="3"/>
       <c r="C34" s="4"/>
     </row>
-    <row r="35" spans="1:12" ht="15.5">
+    <row r="35" spans="1:12" ht="15.45">
       <c r="A35" s="3"/>
       <c r="C35" s="4"/>
     </row>
-    <row r="36" spans="1:12" ht="15.5">
+    <row r="36" spans="1:12" ht="15.45">
       <c r="A36" s="3"/>
       <c r="C36" s="4"/>
     </row>
-    <row r="37" spans="1:12" ht="15.5">
+    <row r="37" spans="1:12" ht="15.45">
       <c r="A37" s="3"/>
       <c r="B37" s="10"/>
       <c r="C37" s="4"/>
     </row>
-    <row r="38" spans="1:12" ht="15.5">
+    <row r="38" spans="1:12" ht="15.45">
       <c r="A38" s="3"/>
       <c r="C38" s="4"/>
     </row>
-    <row r="39" spans="1:12" ht="15.5">
+    <row r="39" spans="1:12" ht="15.45">
       <c r="A39" s="3"/>
       <c r="C39" s="4"/>
     </row>
-    <row r="40" spans="1:12" s="18" customFormat="1" ht="15.5">
+    <row r="40" spans="1:12" s="18" customFormat="1" ht="15.45">
       <c r="A40" s="17"/>
       <c r="C40" s="19"/>
     </row>
-    <row r="41" spans="1:12" ht="15.5">
+    <row r="41" spans="1:12" ht="15.45">
       <c r="A41" s="3"/>
       <c r="C41" s="4"/>
     </row>
-    <row r="42" spans="1:12" ht="15.5">
+    <row r="42" spans="1:12" ht="15.45">
       <c r="A42" s="3"/>
       <c r="C42" s="4"/>
     </row>
-    <row r="43" spans="1:12" ht="15.5">
+    <row r="43" spans="1:12" ht="15.45">
       <c r="A43" s="3"/>
       <c r="C43" s="4"/>
     </row>
-    <row r="44" spans="1:12" ht="15.5">
+    <row r="44" spans="1:12" ht="15.45">
       <c r="A44" s="3"/>
       <c r="C44" s="4"/>
     </row>
-    <row r="45" spans="1:12" ht="15.5">
+    <row r="45" spans="1:12" ht="15.45">
       <c r="A45" s="3"/>
       <c r="C45" s="4"/>
     </row>
-    <row r="46" spans="1:12" ht="15.5">
+    <row r="46" spans="1:12" ht="15.45">
       <c r="A46" s="3"/>
       <c r="C46" s="11"/>
     </row>
-    <row r="47" spans="1:12" ht="15.5">
+    <row r="47" spans="1:12" ht="15.45">
       <c r="C47" s="11"/>
       <c r="K47" s="20"/>
       <c r="L47" s="20"/>
     </row>
-    <row r="48" spans="1:12" ht="15.5">
+    <row r="48" spans="1:12" ht="15.45">
       <c r="C48" s="11"/>
     </row>
-    <row r="49" spans="3:12" s="20" customFormat="1" ht="15.5">
+    <row r="49" spans="3:12" s="20" customFormat="1" ht="15.45">
       <c r="C49" s="21"/>
       <c r="K49"/>
       <c r="L49"/>
     </row>
-    <row r="50" spans="3:12" ht="15.5">
+    <row r="50" spans="3:12" ht="15.45">
       <c r="C50" s="11"/>
     </row>
     <row r="51" spans="3:12">
       <c r="D51" s="13"/>
     </row>
-    <row r="52" spans="3:12" ht="15.5">
+    <row r="52" spans="3:12" ht="15.45">
       <c r="C52" s="11"/>
       <c r="D52" s="14"/>
     </row>
-    <row r="53" spans="3:12" ht="15.5">
+    <row r="53" spans="3:12" ht="15.45">
       <c r="C53" s="11"/>
       <c r="D53" s="14"/>
     </row>
-    <row r="54" spans="3:12" ht="15.5">
+    <row r="54" spans="3:12" ht="15.45">
       <c r="C54" s="11"/>
       <c r="D54" s="14"/>
     </row>
-    <row r="55" spans="3:12" ht="15.5">
+    <row r="55" spans="3:12" ht="15.45">
       <c r="C55" s="11"/>
     </row>
     <row r="56" spans="3:12">
@@ -22873,15 +22367,15 @@
       <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.36328125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="11.3828125" defaultRowHeight="12.45"/>
   <cols>
-    <col min="1" max="1" width="11.36328125" customWidth="1"/>
+    <col min="1" max="1" width="11.3828125" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="12" width="11.36328125" customWidth="1"/>
-    <col min="13" max="13" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="12" width="11.3828125" customWidth="1"/>
+    <col min="13" max="13" width="12.23046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13">
+    <row r="1" spans="1:10">
       <c r="A1" s="3" t="s">
         <v>54</v>
       </c>
@@ -22950,7 +22444,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="13">
+    <row r="12" spans="1:10">
       <c r="A12" s="3" t="s">
         <v>18</v>
       </c>
@@ -23043,7 +22537,7 @@
         <v>5.2514069388399998</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="13">
+    <row r="19" spans="1:12">
       <c r="A19" s="31">
         <v>4.3</v>
       </c>
@@ -23284,7 +22778,7 @@
       <c r="B27" s="16"/>
       <c r="C27" s="30"/>
     </row>
-    <row r="28" spans="1:12" ht="39">
+    <row r="28" spans="1:12" ht="37.299999999999997">
       <c r="A28" s="106" t="s">
         <v>43</v>
       </c>
@@ -23313,16 +22807,16 @@
         <v>148</v>
       </c>
       <c r="J28" s="106" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K28" s="107" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L28" s="107" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="14">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="14.15">
       <c r="A29" s="38" t="s">
         <v>138</v>
       </c>
@@ -23367,7 +22861,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="14">
+    <row r="30" spans="1:12" ht="14.15">
       <c r="A30" t="s">
         <v>139</v>
       </c>
@@ -23412,7 +22906,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="14">
+    <row r="31" spans="1:12" ht="14.15">
       <c r="A31" s="38" t="s">
         <v>140</v>
       </c>
@@ -23457,7 +22951,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="14">
+    <row r="32" spans="1:12" ht="14.15">
       <c r="A32" t="s">
         <v>141</v>
       </c>
@@ -23502,7 +22996,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="14">
+    <row r="33" spans="1:12" ht="14.15">
       <c r="A33" s="38" t="s">
         <v>142</v>
       </c>
@@ -23592,7 +23086,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="14">
+    <row r="35" spans="1:12" ht="14.15">
       <c r="A35" s="38" t="s">
         <v>144</v>
       </c>
@@ -23637,7 +23131,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="14">
+    <row r="36" spans="1:12" ht="14.15">
       <c r="A36" t="s">
         <v>145</v>
       </c>
@@ -23682,7 +23176,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="14">
+    <row r="37" spans="1:12" ht="14.15">
       <c r="A37" s="38" t="s">
         <v>149</v>
       </c>
@@ -23727,7 +23221,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="14">
+    <row r="38" spans="1:12" ht="14.15">
       <c r="A38" t="s">
         <v>150</v>
       </c>
@@ -23772,7 +23266,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="14.5">
+    <row r="39" spans="1:12" ht="14.6">
       <c r="A39" s="38" t="s">
         <v>151</v>
       </c>
@@ -23817,7 +23311,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="14">
+    <row r="40" spans="1:12" ht="14.15">
       <c r="A40" t="s">
         <v>152</v>
       </c>
@@ -23862,7 +23356,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="14">
+    <row r="41" spans="1:12" ht="14.15">
       <c r="A41" s="38" t="s">
         <v>163</v>
       </c>
@@ -23899,7 +23393,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="14">
+    <row r="42" spans="1:12" ht="14.15">
       <c r="A42" t="s">
         <v>164</v>
       </c>
@@ -23935,7 +23429,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="14">
+    <row r="43" spans="1:12" ht="14.15">
       <c r="A43" s="38" t="s">
         <v>165</v>
       </c>
@@ -23972,7 +23466,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="14">
+    <row r="44" spans="1:12" ht="14.15">
       <c r="A44" t="s">
         <v>166</v>
       </c>
@@ -24008,7 +23502,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="14">
+    <row r="45" spans="1:12" ht="14.15">
       <c r="A45" s="45" t="s">
         <v>33</v>
       </c>
@@ -24034,7 +23528,7 @@
       <c r="B46" s="26"/>
       <c r="C46" s="23"/>
       <c r="F46" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -24075,9 +23569,9 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.36328125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="11.3828125" defaultRowHeight="12.45"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="26">
+    <row r="1" spans="1:13" ht="24.9">
       <c r="A1" s="32" t="s">
         <v>55</v>
       </c>
@@ -24692,9 +24186,9 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.36328125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="11.3828125" defaultRowHeight="12.45"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="26">
+    <row r="1" spans="1:13" ht="24.9">
       <c r="A1" s="32" t="s">
         <v>55</v>
       </c>
@@ -25309,9 +24803,9 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.36328125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="11.3828125" defaultRowHeight="12.45"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="26">
+    <row r="1" spans="1:13" ht="24.9">
       <c r="A1" s="32" t="s">
         <v>55</v>
       </c>
@@ -25926,9 +25420,9 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.36328125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="11.3828125" defaultRowHeight="12.45"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="26">
+    <row r="1" spans="1:13" ht="24.9">
       <c r="A1" s="32" t="s">
         <v>55</v>
       </c>
@@ -26351,7 +25845,7 @@
         <v>1.6956139270000001</v>
       </c>
       <c r="G16" s="55" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -26376,7 +25870,7 @@
         <v>1.6890573670000002</v>
       </c>
       <c r="G17" s="55" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -26401,7 +25895,7 @@
         <v>1.6835935670000008</v>
       </c>
       <c r="G18" s="55" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -26426,7 +25920,7 @@
         <v>1.6759442470000003</v>
       </c>
       <c r="G19" s="55" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -26451,7 +25945,7 @@
         <v>1.6564658000000012</v>
       </c>
       <c r="G20" s="55" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -26476,7 +25970,7 @@
         <v>1.5734160400000015</v>
       </c>
       <c r="G21" s="55" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -26501,7 +25995,7 @@
         <v>1.3931106400000015</v>
       </c>
       <c r="G22" s="55" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -26526,7 +26020,7 @@
         <v>1.1614455200000009</v>
       </c>
       <c r="G23" s="55" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -26543,9 +26037,9 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.36328125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="11.3828125" defaultRowHeight="12.45"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="26">
+    <row r="1" spans="1:13" ht="24.9">
       <c r="A1" s="32" t="s">
         <v>55</v>
       </c>
@@ -27160,9 +26654,9 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.36328125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="11.3828125" defaultRowHeight="12.45"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="26">
+    <row r="1" spans="1:13" ht="24.9">
       <c r="A1" s="32" t="s">
         <v>55</v>
       </c>
